--- a/Process Results/Unified_IBNP_NMS_PLICA.xlsx
+++ b/Process Results/Unified_IBNP_NMS_PLICA.xlsx
@@ -3734,20 +3734,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7082474760635857</v>
+        <v>0.7844962503645764</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6355301720194619</v>
+        <v>0.6970132242137638</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5739067000819432</v>
+        <v>0.6839015988707793</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.2120801695834074</v>
+        <v>0.05668841038050578</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3772,20 +3772,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7627218997120575</v>
+        <v>0.8174400385441419</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.703197229382027</v>
+        <v>0.8963398660086356</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7603329763945601</v>
+        <v>0.8638420098179039</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2120801695834074</v>
+        <v>0.360708406254642</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3810,20 +3810,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7867930591536763</v>
+        <v>0.9912705568826685</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7317054136799379</v>
+        <v>0.9699516762818775</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7898354591307685</v>
+        <v>0.9101258934088328</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8104799415123255</v>
+        <v>0.6697173802329535</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3848,20 +3848,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9058699903335296</v>
+        <v>0.9947207410454906</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7903791618400382</v>
+        <v>0.9740728940641195</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8159343442558915</v>
+        <v>0.9224866548578219</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.9130380223365541</v>
+        <v>0.7270485362069952</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3886,20 +3886,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9319925432655266</v>
+        <v>0.9948961166982379</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8072031024422904</v>
+        <v>0.9755883977529961</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8267773469559134</v>
+        <v>0.9333568604137311</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1</v>
+        <v>0.7421780191103644</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3924,20 +3924,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9552400995238173</v>
+        <v>0.9955996699400428</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8365800281946882</v>
+        <v>0.9799909327265236</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8806713037008583</v>
+        <v>0.9414026132428963</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1</v>
+        <v>0.7527763172612798</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3962,20 +3962,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9781255849854955</v>
+        <v>0.9955996699400428</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8555195112702334</v>
+        <v>0.9799909327265236</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8856782649507587</v>
+        <v>0.9458696841721581</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>1</v>
+        <v>0.9754098993852437</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -4000,20 +4000,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9854865285854671</v>
+        <v>0.9955996699400428</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.862234872849177</v>
+        <v>0.981846049374359</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8878446428552242</v>
+        <v>0.9495272811660663</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1</v>
+        <v>0.9754098993852437</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4038,20 +4038,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9876796518410176</v>
+        <v>0.9955996699400428</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8629262332782145</v>
+        <v>0.981846049374359</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8884392798074602</v>
+        <v>0.9497859763394261</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1</v>
+        <v>0.9754098993852437</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4076,20 +4076,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9888619543721103</v>
+        <v>0.9955996699400428</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8650652469139474</v>
+        <v>0.9909619838651854</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.890047513435571</v>
+        <v>0.9888232431713342</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>1</v>
+        <v>0.9762616177921207</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4114,20 +4114,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9910145952891648</v>
+        <v>0.9955996699400428</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8662072534699967</v>
+        <v>0.9974921936325939</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8906641135147167</v>
+        <v>0.9927625382278706</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1</v>
+        <v>0.9777315639941038</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4152,13 +4152,13 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9910145952891648</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8682246409115585</v>
+        <v>1</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8919674336952982</v>
+        <v>0.9940663225250004</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
@@ -4190,13 +4190,13 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9919210355624805</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.8702225421413918</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.8930639982244232</v>
+        <v>0.9982678779401207</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
@@ -4228,13 +4228,13 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9919210355624805</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8716710320686404</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8938944259400807</v>
+        <v>0.9998014749569009</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
@@ -4266,13 +4266,13 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.994233544988575</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8744043396807851</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8955515677451771</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
@@ -4307,10 +4307,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9181306619436169</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9258975070329695</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
@@ -4345,10 +4345,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.942375744646047</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9459097183038507</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
@@ -4383,10 +4383,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9833992581317686</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9833992581317686</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
@@ -4840,37 +4840,37 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>11.26146506867815</v>
+        <v>1.247503855438688</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>2.788645995211348</v>
+        <v>1.034537194513595</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.018305150852013</v>
+        <v>1.001569480317161</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.000320841804232</v>
+        <v>1.007941788484879</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1</v>
+        <v>1.000169813552263</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.002990206121281</v>
+        <v>1.00135295990557</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.015781219557637</v>
+        <v>1.000045237281854</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.003270157090751</v>
+        <v>1.004394142090103</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1</v>
+        <v>1.000043595371316</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.000373202173171</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4" t="n">
         <v>1</v>
@@ -4879,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1.000009450927947</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>1</v>
@@ -4888,25 +4888,25 @@
         <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>1.000451153191329</v>
+        <v>1</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="15.6" customHeight="1">
@@ -4915,46 +4915,46 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>15.22822751280022</v>
+        <v>1.11395128315555</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.065717904776097</v>
+        <v>1.054383988568273</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>2.500643545153781</v>
+        <v>1.015080816815219</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.008821799315533</v>
+        <v>1.009432983470095</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.184451845709884</v>
+        <v>1.043276893952406</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.001707012674527</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1</v>
+        <v>1.004096317384745</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.025869126162199</v>
+        <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1</v>
+        <v>1.000304679437211</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.003289851117221</v>
+        <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.002019127762651</v>
+        <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1.000209163134671</v>
+        <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v>1.001741306310132</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1.000222254832491</v>
+        <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>1</v>
@@ -4990,34 +4990,34 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>1.143783321469683</v>
+        <v>1.078876660052817</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>2.798302405510656</v>
+        <v>1.059495563875705</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.002870373080945</v>
+        <v>1.008801709312384</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>2.234361288591092</v>
+        <v>1.047467879145311</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1</v>
+        <v>1.006658098623846</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v>1.043910782072984</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1</v>
+        <v>1.013194077847346</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.000239273294464</v>
+        <v>1.000594716211128</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.000598040141124</v>
+        <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v>1.001337316151444</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1</v>
@@ -5026,22 +5026,22 @@
         <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>1.000647435585339</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v>1.001294033367427</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1.026649189468142</v>
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1.078714195887367</v>
+        <v>1</v>
       </c>
       <c r="T40" s="4" t="n">
         <v>1</v>
@@ -5065,40 +5065,40 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>15.98720805824482</v>
+        <v>1.065178872169261</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.062994963811063</v>
+        <v>1.020467150751056</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>4.52564233675051</v>
+        <v>1.005664254146003</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1</v>
+        <v>1.018588191725804</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.000585964683464</v>
+        <v>1.009221572119054</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1</v>
+        <v>1.007442852068122</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.000339097585367</v>
+        <v>1.004871180793598</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.007605482244157</v>
+        <v>1.003206004813965</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1</v>
+        <v>1.005381175276135</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.001127020301639</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1</v>
+        <v>1.002420310399415</v>
       </c>
       <c r="N41" s="4" t="n">
         <v>1</v>
@@ -5107,13 +5107,13 @@
         <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1.00284589993554</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1.294545318559189</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>1</v>
@@ -5140,52 +5140,52 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>1.109223015761268</v>
+        <v>2.105596873926486</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>4.646892098738284</v>
+        <v>1.077457513122222</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.009103825442419</v>
+        <v>1.015294905029557</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.000088060538755</v>
+        <v>1.051024060538361</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.004177666678916</v>
+        <v>1.150327182273482</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.000060993573507</v>
+        <v>1.008802292426198</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.000964033168512</v>
+        <v>1.003821203153196</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1</v>
+        <v>1.000381579312006</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.000769763072312</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.000654669327505</v>
+        <v>1.000380520515535</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>1.082708908461505</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1</v>
+        <v>1.02648042846254</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1.01138012992834</v>
+        <v>1</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1.136962490889512</v>
+        <v>1</v>
       </c>
       <c r="R42" s="4" t="n">
         <v>1</v>
@@ -5215,49 +5215,49 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>5.447480554768976</v>
+        <v>1.926640949809524</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.024377469381706</v>
+        <v>1.023251544089215</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1</v>
+        <v>1.000199521179607</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.00106813131139</v>
+        <v>1.001369437383389</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.009295479498446</v>
+        <v>1.024704902354369</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.00102163431035</v>
+        <v>1.007117832453935</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.000088468622161</v>
+        <v>1.010935231121384</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1</v>
+        <v>1.000072823728418</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.000013342503191</v>
+        <v>1.000206513054742</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1.001163450754912</v>
+        <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.000666341003607</v>
+        <v>1.000364016953289</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.00122152198683</v>
+        <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1.282731570082487</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
@@ -5290,55 +5290,55 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>1.175929366372716</v>
+        <v>10.45048809640816</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.08532629164501</v>
+        <v>1.022435984949842</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.009379241669773</v>
+        <v>1.003902518922855</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>4.177910742910384</v>
+        <v>1.013444042369497</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.000863826996084</v>
+        <v>1.021290446014429</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1</v>
+        <v>1.001391297196159</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1</v>
+        <v>1.007942075605138</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.00066197380199</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1</v>
+        <v>1.005289023310294</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1</v>
+        <v>1.001914339364356</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.000109616495741</v>
+        <v>1.000060674395911</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.008645657046453</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1.00721372969499</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5365,52 +5365,52 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>8.969936761066815</v>
+        <v>2.122430716345403</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.030166756274434</v>
+        <v>1.033000261014476</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>4.428220404721402</v>
+        <v>1.039553527811864</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.001635770972981</v>
+        <v>1.226157474347596</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1</v>
+        <v>1.180298505035062</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.002022590898019</v>
+        <v>1.189827933392015</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.000669488650594</v>
+        <v>1.002955560188322</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1</v>
+        <v>2.234472738925493</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.000173549166767</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.010408467462201</v>
+        <v>1.00346870622329</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.009930508289095</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1.005899717777167</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5440,34 +5440,34 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>1.177443845896223</v>
+        <v>1.03165769119045</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>4.534750821675605</v>
+        <v>1.085851491201812</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.00318729668683</v>
+        <v>1.439827350257241</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.001240890614383</v>
+        <v>1.014969445029927</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.002110240275001</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.000176913314192</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.000669313648916</v>
+        <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.001444449728301</v>
+        <v>1</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.001109370685044</v>
+        <v>1</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>1</v>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1.010236689228391</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5515,46 +5515,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>1.108991738331855</v>
+        <v>1.163616532874703</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.040696779365211</v>
+        <v>1.07667994778128</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.001610336828787</v>
+        <v>1.002696692557459</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.009244264256835</v>
+        <v>1.008169808194724</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>2.260973039498045</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.00131575455206</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.009003638513178</v>
+        <v>1.00062916174767</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.00192309217361</v>
+        <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.000320807098222</v>
+        <v>1.037725969123558</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.003794670177846</v>
+        <v>1</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.003694971254971</v>
+        <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5590,34 +5590,34 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>1.247503855438688</v>
+        <v>1.119347632322776</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.034537194513595</v>
+        <v>1.006129466986498</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.001569480317161</v>
+        <v>1.00764930556599</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.007941788484879</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.000169813552263</v>
+        <v>1.000822835961754</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.00135295990557</v>
+        <v>1.000677231844633</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1</v>
+        <v>1.010828376192949</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.000045237281854</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.004394142090103</v>
+        <v>1</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.000043595371316</v>
+        <v>1.044188561429331</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>1</v>
@@ -5665,37 +5665,37 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>1.11395128315555</v>
+        <v>1.045922847348815</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.054383988568273</v>
+        <v>1.009816562769692</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.015080816815219</v>
+        <v>1.007570557247643</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.009432983470095</v>
+        <v>1.05016416556128</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.043276893952406</v>
+        <v>1.003325718646626</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.004096317384745</v>
+        <v>1.014044127209457</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.000304679437211</v>
+        <v>1.01855849262937</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>1.013597276411146</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>1</v>
@@ -5740,37 +5740,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>1.078876660052817</v>
+        <v>1.063925151562564</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.059495563875705</v>
+        <v>1.009678112993498</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.008801709312384</v>
+        <v>1.044518948849398</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.047467879145311</v>
+        <v>1.065436648096866</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.006658098623846</v>
+        <v>1.02738451826267</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.043910782072984</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.013194077847346</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.000594716211128</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.001337316151444</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5815,34 +5815,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>1.065178872169261</v>
+        <v>1.14976080241996</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.020467150751056</v>
+        <v>1.007243773252512</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.005664254146003</v>
+        <v>1.011125213749188</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.018588191725804</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1</v>
+        <v>1.02434347455105</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.009221572119054</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.007442852068122</v>
+        <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.004871180793598</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.003206004813965</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.005381175276135</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5890,31 +5890,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>2.105596873926486</v>
+        <v>1.103151977390671</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.077457513122222</v>
+        <v>1.093833817651945</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.015294905029557</v>
+        <v>1.065201216066602</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.051024060538361</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.150327182273482</v>
+        <v>1.002155560409701</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.008802292426198</v>
+        <v>1</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.003821203153196</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.000381579312006</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5965,28 +5965,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>1.926640949809524</v>
+        <v>1.111375244340753</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.023251544089215</v>
+        <v>1.029460491452628</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.000199521179607</v>
+        <v>1</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.001369437383389</v>
+        <v>1.00909363968795</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.024704902354369</v>
+        <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.007117832453935</v>
+        <v>1</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.010935231121384</v>
+        <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.000072823728418</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6040,25 +6040,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>10.45048809640816</v>
+        <v>1.933622069908432</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.022435984949842</v>
+        <v>1.036342533906131</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.003902518922855</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.013444042369497</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.021290446014429</v>
+        <v>1.001402722853385</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.001391297196159</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.007942075605138</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6115,22 +6115,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>2.122430716345403</v>
+        <v>16.90820427553444</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.033000261014476</v>
+        <v>1.002809638295595</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.039553527811864</v>
+        <v>1.018781080344292</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.226157474347596</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.180298505035062</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.189827933392015</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6190,16 +6190,16 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>1.03165769119045</v>
+        <v>1.004298290623548</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.085851491201812</v>
+        <v>1</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.439827350257241</v>
+        <v>1.002972148884449</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.014969445029927</v>
+        <v>1.000370417674079</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>1</v>
@@ -6265,16 +6265,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>1.163616532874703</v>
+        <v/>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.07667994778128</v>
+        <v/>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.002696692557459</v>
+        <v>1.292244897959184</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.008169808194724</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6340,13 +6340,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>1.119347632322776</v>
+        <v>1.026597296508801</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.006129466986498</v>
+        <v>1.449380318603072</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.00764930556599</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6415,10 +6415,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>1.045922847348815</v>
+        <v>1.100357058140551</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.009816562769692</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6490,7 +6490,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>1.063925151562564</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6576,7 +6576,7 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -6711,61 +6711,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.2675012917535004</v>
+        <v>0.6619986080119327</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.5739067000819432</v>
+        <v>0.6839015988707793</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.6355301720194619</v>
+        <v>0.6970132242137638</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.7082474760635857</v>
+        <v>0.7844962503645764</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.07548433383397581</v>
+        <v>0.3185891605059549</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.3201426664418219</v>
+        <v>0.296742945382206</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.5173064280912547</v>
+        <v>0.2000349976860124</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.6222962372811373</v>
+        <v>0.7095616195105001</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.2120801695834074</v>
+        <v>0.05668841038050578</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>1.621541049298323</v>
+        <v>1.303261341571242</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>1.324837253661612</v>
+        <v>1.263108627387671</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>1.106473398654774</v>
+        <v>1.285972539501978</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>1.07691439149383</v>
+        <v>1.041993557221281</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>3.875862017651995</v>
+        <v>2.403295644430561</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>2.107302775597208</v>
+        <v>2.586110455798049</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>1.257816761940785</v>
+        <v>4.207891384161469</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>1.076398543744718</v>
+        <v>1.042318118216451</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>1.324837253661612</v>
+        <v>1.263108627387671</v>
       </c>
     </row>
     <row r="3">
@@ -6774,62 +6774,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.4337643253186278</v>
+        <v>0.8627571939959261</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.7603329763945601</v>
+        <v>0.8638420098179039</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.703197229382027</v>
+        <v>0.8963398660086356</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.7627218997120575</v>
+        <v>0.8174400385441419</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.2925668624348702</v>
+        <v>0.7656639418067502</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.6746375295799425</v>
+        <v>0.7674100337372323</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.6506766963128955</v>
+        <v>0.8417255432937308</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.6698387635872337</v>
+        <v>0.7395889320068016</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.2120801695834074</v>
+        <v>0.360708406254642</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.386620753624211</v>
+        <v>1.047874656152928</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.038802056009864</v>
+        <v>1.053579107134053</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.040540808619175</v>
+        <v>1.082124887071053</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.031559549359611</v>
+        <v>1.212652317163371</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.526426279818777</v>
+        <v>1.053916921703764</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.041958889135306</v>
+        <v>1.058608610537416</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.038985619117267</v>
+        <v>1.09770649816096</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.030875325845823</v>
+        <v>1.224690159301536</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.038802056009864</v>
+        <v>1.053579107134053</v>
       </c>
     </row>
     <row r="4">
@@ -6838,62 +6838,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.6014666156686133</v>
+        <v>0.904061398001946</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.7898354591307685</v>
+        <v>0.9101258934088328</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.7317054136799379</v>
+        <v>0.9699516762818775</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.7867930591536763</v>
+        <v>0.9912705568826685</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.4465817474247108</v>
+        <v>0.8069461846085403</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.7029445708901039</v>
+        <v>0.8123868695270428</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.6760437301638316</v>
+        <v>0.9239675985415926</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.6905202536771531</v>
+        <v>0.905767286957063</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.8104799415123255</v>
+        <v>0.6697173802329535</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.228654607840675</v>
+        <v>1.027180127021885</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.033043445724563</v>
+        <v>1.013581375432241</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.080187664411303</v>
+        <v>1.004248889798345</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.151344664005984</v>
+        <v>1.003480567579524</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.430438218719133</v>
+        <v>1.046793054524576</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.04515420156201</v>
+        <v>1.037730005102017</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.082304819382503</v>
+        <v>1.052333021197987</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.150057782793564</v>
+        <v>1.098405682281211</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.033043445724563</v>
+        <v>1.013581375432241</v>
       </c>
     </row>
     <row r="5">
@@ -6902,62 +6902,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.7389947288035783</v>
+        <v>0.9286339016352222</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.8159343442558915</v>
+        <v>0.9224866548578219</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.7903791618400382</v>
+        <v>0.9740728940641195</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9058699903335296</v>
+        <v>0.9947207410454906</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.6388075992986813</v>
+        <v>0.8447056614233264</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.7346854717309965</v>
+        <v>0.8430382302591093</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.7316853872696391</v>
+        <v>0.9723216144623231</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.7941381919179957</v>
+        <v>0.9948999348180739</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.9130380223365541</v>
+        <v>0.7270485362069952</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.146106234370956</v>
+        <v>1.014808588205092</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.013289062749173</v>
+        <v>1.011783591121526</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.021285911135468</v>
+        <v>1.001555842173735</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.028836977944682</v>
+        <v>1.000176306419994</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.241662845050258</v>
+        <v>1.026181499085488</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.034087522130067</v>
+        <v>1.012350343687069</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.052522377977249</v>
+        <v>1.001577342893672</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.083098909190749</v>
+        <v>1.000123472558026</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.013289062749173</v>
+        <v>1.011783591121526</v>
       </c>
     </row>
     <row r="6">
@@ -6966,62 +6966,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8469664658490549</v>
+        <v>0.9423856586778261</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.8267773469559134</v>
+        <v>0.9333568604137311</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.8072031024422904</v>
+        <v>0.9755883977529961</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9319925432655266</v>
+        <v>0.9948961166982379</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.7931836611849259</v>
+        <v>0.8668213219253877</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.7597290790072655</v>
+        <v>0.8534500421441477</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.770115243740245</v>
+        <v>0.9738552990512587</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.8601302094130947</v>
+        <v>0.9950227776580062</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>1</v>
+        <v>0.7421780191103644</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.041000013305615</v>
+        <v>1.013676287643763</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.065185574983852</v>
+        <v>1.008620232164575</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.036393474781643</v>
+        <v>1.0045126971412</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.024943929461963</v>
+        <v>1.000707162516766</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.099399891603275</v>
+        <v>1.025587403815318</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.140817426798242</v>
+        <v>1.019977777976687</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.06277017261289</v>
+        <v>1.004650292969022</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.067196317016497</v>
+        <v>1.000467574284462</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.065185574983852</v>
+        <v>1.008620232164575</v>
       </c>
     </row>
     <row r="7">
@@ -7030,62 +7030,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8816921022182759</v>
+        <v>0.9552739960172614</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8806713037008583</v>
+        <v>0.9414026132428963</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8365800281946882</v>
+        <v>0.9799909327265236</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9552400995238173</v>
+        <v>0.9955996699400428</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8720260311281964</v>
+        <v>0.8890010291252204</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8667121729768668</v>
+        <v>0.8705000776002978</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.8184555105216381</v>
+        <v>0.978384011501282</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9179277916402826</v>
+        <v>0.9954880247212929</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>1</v>
+        <v>0.7527763172612798</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.003421809215915</v>
+        <v>1.005851860627391</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.005685391619847</v>
+        <v>1.004745122720526</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.022639176692296</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.023957835808072</v>
+        <v>1</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.015083652205184</v>
+        <v>1.014572327856142</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.022094994027515</v>
+        <v>1.015991371869401</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.043378618276724</v>
+        <v>1</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.06611235434737</v>
+        <v>1</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.005685391619847</v>
+        <v>1.004745122720526</v>
       </c>
     </row>
     <row r="8">
@@ -7094,62 +7094,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8847090843792459</v>
+        <v>0.9608641263029251</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8856782649507587</v>
+        <v>0.9458696841721581</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.8555195112702334</v>
+        <v>0.9799909327265236</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9781255849854955</v>
+        <v>0.9955996699400428</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.8851793684956012</v>
+        <v>0.9019558435860805</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8858621732623656</v>
+        <v>0.8844205680535462</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.8539589796890376</v>
+        <v>0.978384011501282</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9786141590665036</v>
+        <v>0.9954880247212929</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>1</v>
+        <v>0.9754098993852437</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.001491431995639</v>
+        <v>1.003364039876377</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.002446010013112</v>
+        <v>1.003866914285459</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.007849454618484</v>
+        <v>1.001892993685844</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.007525560841025</v>
+        <v>1</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.003139538224274</v>
+        <v>1.004239281139126</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.004447679151056</v>
+        <v>1.003944544338743</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.007268425671122</v>
+        <v>1.002340687868243</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.006292435575507</v>
+        <v>1</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.002446010013112</v>
+        <v>1.003866914285459</v>
       </c>
     </row>
     <row r="9">
@@ -7158,62 +7158,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.8860285678145212</v>
+        <v>0.9640965115395886</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.8878446428552242</v>
+        <v>0.9495272811660663</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.862234872849177</v>
+        <v>0.981846049374359</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9854865285854671</v>
+        <v>0.9955996699400428</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.8879584229583323</v>
+        <v>0.905779487982119</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.8898022039810936</v>
+        <v>0.8879092041983301</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.8601659170590948</v>
+        <v>0.9806741030874857</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9847720256157088</v>
+        <v>0.9954880247212929</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>1</v>
+        <v>0.9754098993852437</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.003061600678336</v>
+        <v>1.000424088210348</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.000669753381992</v>
+        <v>1.000272446277733</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.000801823784688</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.002225421851984</v>
+        <v>1</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.003490768160056</v>
+        <v>1.000587822573012</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.001135297830102</v>
+        <v>1.000324502240135</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.001567526861366</v>
+        <v>1</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.002921735891737</v>
+        <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.000669753381992</v>
+        <v>1.000272446277733</v>
       </c>
     </row>
     <row r="10">
@@ -7222,62 +7222,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.8887412334787673</v>
+        <v>0.9645053735037701</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.8884392798074602</v>
+        <v>0.9497859763394261</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.8629262332782145</v>
+        <v>0.981846049374359</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9876796518410176</v>
+        <v>0.9955996699400428</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.8910580799486484</v>
+        <v>0.9063119256113265</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.8908123944924934</v>
+        <v>0.8881973327241286</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.8615142502393162</v>
+        <v>0.9806741030874857</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.987649269388129</v>
+        <v>0.9954880247212929</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>1</v>
+        <v>0.9754098993852437</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.001623364768877</v>
+        <v>1.026958314975325</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.001810178438373</v>
+        <v>1.041101119414673</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.002478790831989</v>
+        <v>1.009284484565208</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.001197050611389</v>
+        <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.001435912297269</v>
+        <v>1.086969276179783</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.001472540602263</v>
+        <v>1.108320026764119</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.001434535458584</v>
+        <v>1.009380743625488</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.001195861375324</v>
+        <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.001810178438373</v>
+        <v>1.041101119414673</v>
       </c>
     </row>
     <row r="11">
@@ -7286,62 +7286,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.8901839846858449</v>
+        <v>0.9905068131580776</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.890047513435571</v>
+        <v>0.9888232431713342</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.8650652469139474</v>
+        <v>0.9909619838651854</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9888619543721103</v>
+        <v>0.9955996699400428</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.8923375612032273</v>
+        <v>0.9851332177748487</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.8921241519123826</v>
+        <v>0.9844068915766252</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.8627501229793599</v>
+        <v>0.9898735554287048</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9888303610017568</v>
+        <v>0.9954880247212929</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>1</v>
+        <v>0.9762616177921207</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.000603595477468</v>
+        <v>1.002667796980577</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.000692772093442</v>
+        <v>1.003983821257986</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.001320139215075</v>
+        <v>1.006589768198713</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.002176887185857</v>
+        <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.000983777903984</v>
+        <v>1.003776070542327</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.001147740887981</v>
+        <v>1.004401782685105</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.001944354610298</v>
+        <v>1.007364760238222</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.002239497142527</v>
+        <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.000692772093442</v>
+        <v>1.003983821257986</v>
       </c>
     </row>
     <row r="12">
@@ -7350,62 +7350,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.8907212957131154</v>
+        <v>0.9931492842434614</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.8906641135147167</v>
+        <v>0.9927625382278706</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.8662072534699967</v>
+        <v>0.9974921936325939</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9910145952891648</v>
+        <v>0.9955996699400428</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.893215423178834</v>
+        <v>0.9888531502987563</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.8931480792786881</v>
+        <v>0.9887400367870657</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.8644276151585096</v>
+        <v>0.9971637368305936</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9910448437696637</v>
+        <v>0.9954880247212929</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>1</v>
+        <v>0.9777315639941038</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.001399021206948</v>
+        <v>1.000923363985745</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.00146331278066</v>
+        <v>1.001313289177346</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.002328989319219</v>
+        <v>1.002514111271662</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1</v>
+        <v>1.004419778544344</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.001279166760084</v>
+        <v>1.001374707269167</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.001354663808993</v>
+        <v>1.001489266208264</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.001734744577033</v>
+        <v>1.002844330439072</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1</v>
+        <v>1.004532425470382</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.00146331278066</v>
+        <v>1.001313289177346</v>
       </c>
     </row>
     <row r="13">
@@ -7414,28 +7414,28 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.8919674336952982</v>
+        <v>0.9940663225250004</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.8919674336952982</v>
+        <v>0.9940663225250004</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.8682246409115585</v>
+        <v>1</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9910145952891648</v>
+        <v>1</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.8943579946577582</v>
+        <v>0.9902125339126107</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.8943579946577582</v>
+        <v>0.9902125339126107</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.8659271762761438</v>
+        <v>1</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9910448437696637</v>
+        <v>1</v>
       </c>
       <c r="J13" s="34" t="n">
         <v>1</v>
@@ -7445,31 +7445,31 @@
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.001229377315472</v>
+        <v>1.004226634903442</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.001229377315472</v>
+        <v>1.004226634903442</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.002301133987323</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.000914658853285</v>
+        <v>1</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.00130371727556</v>
+        <v>1.007094101571743</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.00130371727556</v>
+        <v>1.007094101571743</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.002270913257344</v>
+        <v>1</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.00123165708499</v>
+        <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.001229377315472</v>
+        <v>1.004226634903442</v>
       </c>
     </row>
     <row r="14">
@@ -7478,28 +7478,28 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.8930639982244232</v>
+        <v>0.9982678779401207</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.8930639982244232</v>
+        <v>0.9982678779401207</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.8702225421413918</v>
+        <v>1</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9919210355624805</v>
+        <v>1</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.8955239846259285</v>
+        <v>0.9972372022057999</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.8955239846259285</v>
+        <v>0.9972372022057999</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.8678936217806441</v>
+        <v>1</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9922654711730359</v>
+        <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
         <v>1</v>
@@ -7509,31 +7509,31 @@
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.000929863612584</v>
+        <v>1.001536258003157</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.000929863612584</v>
+        <v>1.001536258003157</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.001664505177818</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.000916031106178</v>
+        <v>1.002466169458898</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.000916031106178</v>
+        <v>1.002466169458898</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.001644529838881</v>
+        <v>1</v>
       </c>
       <c r="U14" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000929863612584</v>
+        <v>1.001536258003157</v>
       </c>
     </row>
     <row r="15">
@@ -7542,28 +7542,28 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.8938944259400807</v>
+        <v>0.9998014749569009</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.8938944259400807</v>
+        <v>0.9998014749569009</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.8716710320686404</v>
+        <v>1</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9919210355624805</v>
+        <v>1</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.8963443124521739</v>
+        <v>0.9996965581371569</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.8963443124521739</v>
+        <v>0.9996965581371569</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.8693208987386364</v>
+        <v>1</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9922654711730359</v>
+        <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
         <v>1</v>
@@ -7573,31 +7573,31 @@
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.001853845104083</v>
+        <v>1.000198564463118</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.001853845104083</v>
+        <v>1.000198564463118</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.003135710046092</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.002331344273572</v>
+        <v>1</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.001728929863345</v>
+        <v>1.000303533967756</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.001728929863345</v>
+        <v>1.000303533967756</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.002879974617584</v>
+        <v>1</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.001966572592389</v>
+        <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.001853845104083</v>
+        <v>1.000198564463118</v>
       </c>
     </row>
     <row r="16">
@@ -7606,28 +7606,28 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.8955515677451771</v>
+        <v>1</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.8955515677451771</v>
+        <v>1</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.8744043396807851</v>
+        <v>1</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.994233544988575</v>
+        <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.8978940289018124</v>
+        <v>1</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.8978940289018124</v>
+        <v>1</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.8718245208615395</v>
+        <v>1</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9942168332530189</v>
+        <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
         <v>1</v>
@@ -7637,31 +7637,31 @@
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.033885194756788</v>
+        <v>1</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.033885194756788</v>
+        <v>1</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.050006982214652</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.005799899873114</v>
+        <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.033669765437934</v>
+        <v>1</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.033669765437934</v>
+        <v>1</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.050504648156901</v>
+        <v>1</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1.005816806307794</v>
+        <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.033885194756788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -7670,25 +7670,25 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9258975070329695</v>
+        <v>1</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9258975070329695</v>
+        <v>1</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9181306619436169</v>
+        <v>1</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9281259102430579</v>
+        <v>1</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9281259102430579</v>
+        <v>1</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9158557115422106</v>
+        <v>1</v>
       </c>
       <c r="I17" s="34" t="n">
         <v>1</v>
@@ -7701,31 +7701,31 @@
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.021613851553624</v>
+        <v>1</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.021613851553624</v>
+        <v>1</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.026407006875367</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.020451460044707</v>
+        <v>1</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.020451460044707</v>
+        <v>1</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.027268613392942</v>
+        <v>1</v>
       </c>
       <c r="U17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.021613851553624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -7734,25 +7734,25 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9459097183038507</v>
+        <v>1</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9459097183038507</v>
+        <v>1</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.942375744646047</v>
+        <v>1</v>
       </c>
       <c r="E18" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.947107440212851</v>
+        <v>1</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.947107440212851</v>
+        <v>1</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9408298268639733</v>
+        <v>1</v>
       </c>
       <c r="I18" s="34" t="n">
         <v>1</v>
@@ -7765,31 +7765,31 @@
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1.039633317115234</v>
+        <v>1</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1.039633317115234</v>
+        <v>1</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1.043532013338406</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1.042174103797573</v>
+        <v>1</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1.042174103797573</v>
+        <v>1</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1.049127928898614</v>
+        <v>1</v>
       </c>
       <c r="U18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1.039633317115234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -7798,25 +7798,25 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9833992581317686</v>
+        <v>1</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9833992581317686</v>
+        <v>1</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9833992581317686</v>
+        <v>1</v>
       </c>
       <c r="E19" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9870508477038413</v>
+        <v>1</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9870508477038413</v>
+        <v>1</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9870508477038413</v>
+        <v>1</v>
       </c>
       <c r="I19" s="34" t="n">
         <v>1</v>
@@ -7829,31 +7829,31 @@
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1.016880978637068</v>
+        <v>1</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1.016880978637068</v>
+        <v>1</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1.016880978637068</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1.013119032647894</v>
+        <v>1</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1.013119032647894</v>
+        <v>1</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1.013119032647894</v>
+        <v>1</v>
       </c>
       <c r="U19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1.016880978637068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -8193,7 +8193,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45626</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>100565.53</v>
+        <v>208058.68</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>3073.03</v>
+        <v>158736.8</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>34606.82</v>
+        <v>198024.77</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>96506.17</v>
+        <v>204863.99</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>98272.73</v>
+        <v>205185.52</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>98304.25999999999</v>
+        <v>206815.06</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>98304.25999999999</v>
+        <v>206850.18</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>98598.20999999999</v>
+        <v>207130.04</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>98598.20999999999</v>
+        <v>207130.04</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>100154.21</v>
+        <v>207139.41</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>100481.73</v>
+        <v>208049.61</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>100481.73</v>
+        <v>208058.68</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>100519.23</v>
+        <v>208058.68</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>100519.23</v>
+        <v>208058.68</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>100519.23</v>
+        <v>208058.68</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>100520.18</v>
+        <v>208058.68</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>100520.18</v>
+        <v>208058.68</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>100520.18</v>
+        <v>208058.68</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>100565.53</v>
+        <v>208058.68</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>100565.53</v>
+        <v>208058.68</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>100565.53</v>
+        <v>208058.68</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>100565.53</v>
+        <v>208058.68</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>100565.53</v>
+        <v>208058.68</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>100565.53</v>
+        <v>208058.68</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>100565.53</v>
+        <v>208058.68</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>124119.37</v>
+        <v>38808.49</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8739,73 +8739,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>2476.52</v>
+        <v>30719.97</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>37713.00999999999</v>
+        <v>34220.55</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>40191.42999999999</v>
+        <v>36081.6</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>100504.44</v>
+        <v>36625.74</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>101391.07</v>
+        <v>36971.23</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>120092.84</v>
+        <v>38571.23</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>120297.84</v>
+        <v>38571.23</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>120297.84</v>
+        <v>38729.23</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>123409.84</v>
+        <v>38729.23</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>123409.84</v>
+        <v>38741.03</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>123409.84</v>
+        <v>38741.03</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>123815.84</v>
+        <v>38741.03</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>124065.84</v>
+        <v>38741.03</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>124091.79</v>
+        <v>38741.03</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>124091.79</v>
+        <v>38808.49</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>124091.79</v>
+        <v>38808.49</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>124091.79</v>
+        <v>38808.49</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>124119.37</v>
+        <v>38808.49</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>124119.37</v>
+        <v>38808.49</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>124119.37</v>
+        <v>38808.49</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>124119.37</v>
+        <v>38808.49</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>124119.37</v>
+        <v>38808.49</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>124119.37</v>
+        <v>38808.49</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>231615.59</v>
+        <v>38688.88</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8866,70 +8866,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>29136.62</v>
+        <v>29967.42</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>33325.98</v>
+        <v>32331.15</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>93256.17</v>
+        <v>34254.71</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>93523.84999999999</v>
+        <v>34556.21</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>208966.07</v>
+        <v>36196.52</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>208966.07</v>
+        <v>36437.52</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>208966.07</v>
+        <v>38037.52</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>208966.07</v>
+        <v>38539.39</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>209016.07</v>
+        <v>38562.31</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>209141.07</v>
+        <v>38562.31</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>209141.07</v>
+        <v>38613.88</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>209141.07</v>
+        <v>38613.88</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>209141.07</v>
+        <v>38613.88</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>209141.07</v>
+        <v>38638.88</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>209141.07</v>
+        <v>38688.88</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>209141.07</v>
+        <v>38688.88</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>214714.51</v>
+        <v>38688.88</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>214714.51</v>
+        <v>38688.88</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>231615.59</v>
+        <v>38688.88</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>231615.59</v>
+        <v>38688.88</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>231615.59</v>
+        <v>38688.88</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>231615.59</v>
+        <v>38688.88</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>193162.9</v>
+        <v>36707.89999999999</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8993,67 +8993,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1916.05</v>
+        <v>31915.25</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>30632.29</v>
+        <v>33995.45</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>32561.97</v>
+        <v>34691.24</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>147363.83</v>
+        <v>34887.74</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>147363.83</v>
+        <v>35536.24</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>147363.83</v>
+        <v>35536.24</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>147450.18</v>
+        <v>35863.94</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>147450.18</v>
+        <v>36130.87</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>147500.18</v>
+        <v>36306.87</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>148621.99</v>
+        <v>36423.27</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>148621.99</v>
+        <v>36619.27</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>148789.49</v>
+        <v>36619.27</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>148789.49</v>
+        <v>36707.89999999999</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>148789.49</v>
+        <v>36707.89999999999</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>148789.49</v>
+        <v>36707.89999999999</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>149212.93</v>
+        <v>36707.89999999999</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>149212.93</v>
+        <v>36707.89999999999</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>193162.9</v>
+        <v>36707.89999999999</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>193162.9</v>
+        <v>36707.89999999999</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>193162.9</v>
+        <v>36707.89999999999</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>193162.9</v>
+        <v>36707.89999999999</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>175761.11</v>
+        <v>36522.42</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9120,64 +9120,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>29189.91</v>
+        <v>11644</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>32378.12</v>
+        <v>24517.57</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>150457.63</v>
+        <v>26416.64</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>151827.37</v>
+        <v>26820.68</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>151840.74</v>
+        <v>28189.18</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>152475.08</v>
+        <v>32426.78</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>152484.38</v>
+        <v>32712.21</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>152484.38</v>
+        <v>32712.21</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>152631.38</v>
+        <v>32837.21</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>152631.38</v>
+        <v>32849.74</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>152748.87</v>
+        <v>32849.74</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>152848.87</v>
+        <v>32862.24</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>152848.87</v>
+        <v>35580.24</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>152848.87</v>
+        <v>36522.42</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>154588.31</v>
+        <v>36522.42</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>154588.31</v>
+        <v>36522.42</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>175761.11</v>
+        <v>36522.42</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>175761.11</v>
+        <v>36522.42</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>175761.11</v>
+        <v>36522.42</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>175761.11</v>
+        <v>36522.42</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>192867.35</v>
+        <v>68703.12</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9247,61 +9247,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>26556.64</v>
+        <v>33329.63</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>144666.78</v>
+        <v>64214.23000000001</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>148193.39</v>
+        <v>65707.31000000001</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>148193.39</v>
+        <v>65720.42000000001</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>148351.68</v>
+        <v>65810.42000000001</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>149730.68</v>
+        <v>67436.26000000001</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>149883.65</v>
+        <v>67916.26000000001</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>149896.91</v>
+        <v>68658.94</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>149896.91</v>
+        <v>68663.94</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>149898.91</v>
+        <v>68678.12</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>150073.31</v>
+        <v>68678.12</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>150173.31</v>
+        <v>68703.12</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>150173.31</v>
+        <v>68703.12</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>150356.75</v>
+        <v>68703.12</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>150356.75</v>
+        <v>68703.12</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>192867.35</v>
+        <v>68703.12</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>192867.35</v>
+        <v>68703.12</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>192867.35</v>
+        <v>68703.12</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>192867.35</v>
+        <v>68703.12</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>153587</v>
+        <v>35602.02</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9374,58 +9374,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>28043.3</v>
+        <v>3154.09</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>32976.94</v>
+        <v>32961.78</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>35790.74000000001</v>
+        <v>33701.31</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>36126.43000000001</v>
+        <v>33832.82999999999</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>150933</v>
+        <v>34287.67999999999</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>151063.38</v>
+        <v>35017.67999999999</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>151063.38</v>
+        <v>35066.39999999999</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>151063.38</v>
+        <v>35344.89999999999</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>151163.38</v>
+        <v>35344.89999999999</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>151163.38</v>
+        <v>35531.84</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>151163.38</v>
+        <v>35599.85999999999</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>151179.95</v>
+        <v>35602.02</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>151179.95</v>
+        <v>35602.02</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>152487</v>
+        <v>35602.02</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>152487</v>
+        <v>35602.02</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>153587</v>
+        <v>35602.02</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>153587</v>
+        <v>35602.02</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>153587</v>
+        <v>35602.02</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>153449.67</v>
+        <v>31067.06</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9501,55 +9501,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>3637</v>
+        <v>3519.95</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>32623.66</v>
+        <v>7470.85</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>33607.81</v>
+        <v>7717.39</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>148822.79</v>
+        <v>8022.64</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>149066.23</v>
+        <v>9837.02</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>149066.23</v>
+        <v>11610.62</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>149367.73</v>
+        <v>13814.64</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>149467.73</v>
+        <v>13855.47</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>149467.73</v>
+        <v>13855.47</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>149467.73</v>
+        <v>30959.67</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>149493.67</v>
+        <v>30959.67</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>151049.67</v>
+        <v>31067.06</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>152549.67</v>
+        <v>31067.06</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>152549.67</v>
+        <v>31067.06</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>153449.67</v>
+        <v>31067.06</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>153449.67</v>
+        <v>31067.06</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>153449.67</v>
+        <v>31067.06</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>153558.27</v>
+        <v>56244.41</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9628,52 +9628,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>28186.72</v>
+        <v>34356.58</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>33188.28</v>
+        <v>35444.23</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>150500.58</v>
+        <v>38487.17000000001</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>150980.27</v>
+        <v>55414.88</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>151167.62</v>
+        <v>56244.41</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>151486.62</v>
+        <v>56244.41</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>151513.42</v>
+        <v>56244.41</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>151513.42</v>
+        <v>56244.41</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>151614.83</v>
+        <v>56244.41</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>151833.83</v>
+        <v>56244.41</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>152002.27</v>
+        <v>56244.41</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>152002.27</v>
+        <v>56244.41</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>152002.27</v>
+        <v>56244.41</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>152002.27</v>
+        <v>56244.41</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>152002.27</v>
+        <v>56244.41</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>153558.27</v>
+        <v>56244.41</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>81491.42999999999</v>
+        <v>41260.41</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9755,49 +9755,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>30282.02</v>
+        <v>31374.58</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>33582.51</v>
+        <v>36507.98</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>34949.21</v>
+        <v>39307.41</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>35005.49</v>
+        <v>39413.41</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>35329.09</v>
+        <v>39735.41</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>79878.12</v>
+        <v>39735.41</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>79983.22</v>
+        <v>39735.41</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>80703.36</v>
+        <v>39760.41</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>80858.56</v>
+        <v>39760.41</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>80884.5</v>
+        <v>41260.41</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>81191.42999999999</v>
+        <v>41260.41</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>81191.42999999999</v>
+        <v>41260.41</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>81491.42999999999</v>
+        <v>41260.41</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>81491.42999999999</v>
+        <v>41260.41</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>81491.42999999999</v>
+        <v>41260.41</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>208058.68</v>
+        <v>38989.98</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9882,46 +9882,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>158736.8</v>
+        <v>32502.53</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>198024.77</v>
+        <v>36381.63</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>204863.99</v>
+        <v>36604.63</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>205185.52</v>
+        <v>36884.63</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>206815.06</v>
+        <v>36884.63</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>206850.18</v>
+        <v>36914.98</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>207130.04</v>
+        <v>36939.98</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>207130.04</v>
+        <v>37339.98</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>207139.41</v>
+        <v>37339.98</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>208049.61</v>
+        <v>37339.98</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>208058.68</v>
+        <v>38989.98</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>208058.68</v>
+        <v>38989.98</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>208058.68</v>
+        <v>38989.98</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>208058.68</v>
+        <v>38989.98</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>38741.03</v>
+        <v>37272.07000000001</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -10012,43 +10012,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>30719.97</v>
+        <v>31751.08</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>34220.55</v>
+        <v>33209.18</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>36081.6</v>
+        <v>33535.18</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>36625.74</v>
+        <v>33789.06</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>36971.23</v>
+        <v>35484.06</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>38571.23</v>
+        <v>35602.07000000001</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>38571.23</v>
+        <v>35602.07000000001</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>38729.23</v>
+        <v>36102.07000000001</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>38729.23</v>
+        <v>36102.07000000001</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>38741.03</v>
+        <v>36772.07000000001</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>38741.03</v>
+        <v>36772.07000000001</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>38741.03</v>
+        <v>37272.07000000001</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>38741.03</v>
+        <v>37272.07000000001</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>38613.88</v>
+        <v>37365.79</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v/>
+        <v>66947.35000000001</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10148,40 +10148,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>29967.42</v>
+        <v>30423.08</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>32331.15</v>
+        <v>32367.88</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>34254.71</v>
+        <v>32681.14</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>34556.21</v>
+        <v>34136.07</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>36196.52</v>
+        <v>36369.82</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>36437.52</v>
+        <v>37365.79</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>38037.52</v>
+        <v>37365.79</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>38539.39</v>
+        <v>37365.79</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>38562.31</v>
+        <v>37365.79</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>38562.31</v>
+        <v>37365.79</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>38613.88</v>
+        <v>37365.79</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>38613.88</v>
+        <v>37365.79</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>36619.27</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v/>
+        <v>74898.13833333334</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10284,37 +10284,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>31915.25</v>
+        <v>34519.58</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>33995.45</v>
+        <v>39689.26</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>34691.24</v>
+        <v>39976.76</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>34887.74</v>
+        <v>40421.51000000001</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>35536.24</v>
+        <v>40421.51000000001</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>35536.24</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>35863.94</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>36130.87</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>36306.87</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>36423.27</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>36619.27</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>32849.74</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v/>
+        <v>76192.5475</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10420,34 +10420,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>11644</v>
+        <v>32411.4</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>24517.57</v>
+        <v>35754.7</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>26416.64</v>
+        <v>39109.7</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>26820.68</v>
+        <v>41659.7</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>28189.18</v>
+        <v>41659.7</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>32426.78</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>32712.21</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>32712.21</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>32837.21</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>32849.74</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>68663.94</v>
+        <v>36619.10000000001</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v/>
+        <v>61517.36916666667</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10556,31 +10556,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>33329.63</v>
+        <v>31718</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>64214.23000000001</v>
+        <v>35250.6</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>65707.31000000001</v>
+        <v>36289.10000000001</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>65720.42000000001</v>
+        <v>36289.10000000001</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>65810.42000000001</v>
+        <v>36619.10000000001</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>67436.26000000001</v>
+        <v>36619.10000000001</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>67916.26000000001</v>
+        <v>36619.10000000001</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>68658.94</v>
+        <v>36619.10000000001</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>68663.94</v>
+        <v>36619.10000000001</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>35344.89999999999</v>
+        <v>71389.91999999998</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10662,7 +10662,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v/>
+        <v>72644.10897500001</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10694,28 +10694,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>3154.09</v>
+        <v>35575.68</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>32961.78</v>
+        <v>68789.92</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>33701.31</v>
+        <v>71289.92000000001</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>33832.82999999999</v>
+        <v>71289.92</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>34287.67999999999</v>
+        <v>71289.92</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>35017.67999999999</v>
+        <v>71389.92</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>35066.39999999999</v>
+        <v>71389.91999999998</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>35344.89999999999</v>
+        <v>71389.91999999998</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>13814.64</v>
+        <v>36362.10000000001</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v/>
+        <v>68774.0675</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10832,25 +10832,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>3519.95</v>
+        <v>2105</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>7470.85</v>
+        <v>35591.77</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>7717.39</v>
+        <v>35691.77</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>8022.64</v>
+        <v>36362.10000000001</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>9837.02</v>
+        <v>36362.10000000001</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>11610.62</v>
+        <v>36362.10000000001</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>13814.64</v>
+        <v>36362.10000000001</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>56244.41</v>
+        <v>33758.19</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v/>
+        <v>63530.44749999999</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10970,22 +10970,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>34356.58</v>
+        <v>33501.69</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>35444.23</v>
+        <v>33645.69</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>38487.17000000001</v>
+        <v>33645.69</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>55414.88</v>
+        <v>33745.69</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>56244.41</v>
+        <v>33758.19</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>56244.41</v>
+        <v>33758.19</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>39735.41</v>
+        <v>791.5</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v/>
+        <v>76526.11916666667</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11108,19 +11108,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>31374.58</v>
+        <v/>
       </c>
       <c r="T27" s="22" t="n">
-        <v>36507.98</v>
+        <v/>
       </c>
       <c r="U27" s="22" t="n">
-        <v>39307.41</v>
+        <v>612.5</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>39413.41</v>
+        <v>791.5</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>39735.41</v>
+        <v>791.5</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>36884.63</v>
+        <v>45901.15</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v/>
+        <v>62919.23583333334</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11246,16 +11246,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>32502.53</v>
+        <v>30849</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>36381.63</v>
+        <v>31669.5</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>36604.63</v>
+        <v>45901.15</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>36884.63</v>
+        <v>45901.15</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>33535.18</v>
+        <v>35255</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11352,7 +11352,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v/>
+        <v>61890.5225</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>0</v>
@@ -11383,13 +11383,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>31751.08</v>
+        <v>32039.6</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>33209.18</v>
+        <v>35255</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>33535.18</v>
+        <v>35255</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11463,7 +11463,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>32367.88</v>
+        <v>33219</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11490,7 +11490,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>66947.35000000001</v>
+        <v>69032.43833333334</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>105</v>
@@ -11521,10 +11521,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>30423.08</v>
+        <v>33219</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>32367.88</v>
+        <v>33219</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11601,7 +11601,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>34519.58</v>
+        <v/>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11628,7 +11628,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>74898.13833333334</v>
+        <v>56166.315</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>110</v>
@@ -11659,7 +11659,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>34519.58</v>
+        <v/>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
@@ -11806,7 +11806,21 @@
       <c r="H35" s="26" t="n">
         <v>0.075</v>
       </c>
-      <c r="J35" s="25" t="n"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Previous Quarter</t>
+        </is>
+      </c>
+      <c r="J35" s="25" t="inlineStr">
+        <is>
+          <t>Liability Change</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Annzd Prem Change</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="C36" s="22" t="n"/>
@@ -11817,7 +11831,10 @@
         <v/>
       </c>
       <c r="I36" s="28" t="n"/>
-      <c r="J36" s="29" t="n"/>
+      <c r="J36" s="29">
+        <f>(H36-I36)/I36</f>
+        <v/>
+      </c>
       <c r="K36" s="29" t="n"/>
     </row>
     <row r="37">

--- a/Process Results/Unified_IBNP_NMS_PLICA.xlsx
+++ b/Process Results/Unified_IBNP_NMS_PLICA.xlsx
@@ -3734,20 +3734,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7844962503645764</v>
+        <v>0.7605749161455859</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6970132242137638</v>
+        <v>0.8385667126983993</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.6839015988707793</v>
+        <v>0.6712122445040976</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.05668841038050578</v>
+        <v>0.09017410441895078</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3772,20 +3772,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8174400385441419</v>
+        <v>0.8177349832478183</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8963398660086356</v>
+        <v>0.8815269227264787</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8638420098179039</v>
+        <v>0.8529765184283543</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.360708406254642</v>
+        <v>0.5737779075488904</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3810,20 +3810,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9912705568826685</v>
+        <v>0.9329375572087395</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9699516762818775</v>
+        <v>0.9562464251805889</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9101258934088328</v>
+        <v>0.8987895526146384</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6697173802329535</v>
+        <v>0.707162585394653</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3848,20 +3848,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9947207410454906</v>
+        <v>0.9427605002421787</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9740728940641195</v>
+        <v>0.9632677245298695</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.9224866548578219</v>
+        <v>0.9123637496482776</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.7270485362069952</v>
+        <v>0.7403569036586483</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3886,20 +3886,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9948961166982379</v>
+        <v>0.957915487238493</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9755883977529961</v>
+        <v>0.97025779347286</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9333568604137311</v>
+        <v>0.9243873548202437</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7421780191103644</v>
+        <v>0.7487255874670744</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3924,20 +3924,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9955996699400428</v>
+        <v>0.9834725428975987</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9799909327265236</v>
+        <v>0.9795122426063045</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9414026132428963</v>
+        <v>0.9328810866758883</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7527763172612798</v>
+        <v>0.7544147809190932</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3962,20 +3962,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9955996699400428</v>
+        <v>0.9838839796998027</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9799909327265236</v>
+        <v>0.9797355404896188</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9458696841721581</v>
+        <v>0.9373731210680966</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9754098993852437</v>
+        <v>0.8709883798930732</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -4000,20 +4000,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9955996699400428</v>
+        <v>0.9839431090130961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.981846049374359</v>
+        <v>0.9797676372734103</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9495272811660663</v>
+        <v>0.9398365754891466</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9754098993852437</v>
+        <v>0.8709883798930732</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4038,20 +4038,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9955996699400428</v>
+        <v>0.9846339909775303</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.981846049374359</v>
+        <v>0.9801569667127159</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9497859763394261</v>
+        <v>0.9400396664075202</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9754098993852437</v>
+        <v>0.8709883798930732</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4076,20 +4076,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9955996699400428</v>
+        <v>0.9846339909775303</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9909619838651854</v>
+        <v>0.9830382185135281</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9888232431713342</v>
+        <v>0.9790256950465371</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9762616177921207</v>
+        <v>0.8713318815165255</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4114,20 +4114,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9955996699400428</v>
+        <v>0.9854502962838934</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9974921936325939</v>
+        <v>0.9904806742999587</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9927625382278706</v>
+        <v>0.9830606185320808</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9777315639941038</v>
+        <v>0.8718680485110205</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4152,20 +4152,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9940663225250004</v>
+        <v>0.9844796693029103</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1</v>
+        <v>0.8776675796928644</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4190,20 +4190,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9982678779401207</v>
+        <v>0.990245612820627</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>1</v>
+        <v>0.8779149036377517</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4228,20 +4228,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9998014749569009</v>
+        <v>0.9924000482313294</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1</v>
+        <v>0.8779149036377517</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4266,20 +4266,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1</v>
+        <v>0.8779149036377517</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4304,13 +4304,13 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
@@ -4342,13 +4342,13 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
@@ -4380,13 +4380,13 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
@@ -4418,13 +4418,13 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
@@ -4456,13 +4456,13 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
@@ -4840,34 +4840,34 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>1.247503855438688</v>
+        <v>1.096556083876384</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.034537194513595</v>
+        <v>1.023748618498333</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.001569480317161</v>
+        <v>1.01577849903309</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.007941788484879</v>
+        <v>1.006779557474655</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.000169813552263</v>
+        <v>1.045367162113883</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.00135295990557</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1</v>
+        <v>1.004285582540862</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.000045237281854</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.004394142090103</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.000043595371316</v>
+        <v>1</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>1</v>
@@ -4879,34 +4879,34 @@
         <v>1</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1</v>
+        <v>1.001821972786543</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="39" ht="15.6" customHeight="1">
@@ -4915,34 +4915,34 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>1.11395128315555</v>
+        <v>1.050925894960451</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.054383988568273</v>
+        <v>1.000795553555711</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.015080816815219</v>
+        <v>1.009586749109529</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.009432983470095</v>
+        <v>1.047242368467798</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.043276893952406</v>
+        <v>1.00724786744282</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.004096317384745</v>
+        <v>1.014984700897165</v>
       </c>
       <c r="I39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.000304679437211</v>
+        <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1</v>
+        <v>1.001517031078692</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>1</v>
@@ -4951,10 +4951,10 @@
         <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1</v>
+        <v>1.00073430927932</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1.001741306310132</v>
+        <v>1.001467540929716</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>1</v>
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1</v>
+        <v>1.03077319859557</v>
       </c>
       <c r="V39" s="4" t="n">
         <v>1</v>
@@ -4990,46 +4990,46 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>1.078876660052817</v>
+        <v>1.052905742552541</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.059495563875705</v>
+        <v>1.017855150094856</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.008801709312384</v>
+        <v>1.00574498410262</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.047467879145311</v>
+        <v>1.018851607183087</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.006658098623846</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.043910782072984</v>
+        <v>1.009349834159563</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.013194077847346</v>
+        <v>1.007066848143327</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.000594716211128</v>
+        <v>1.004940149804429</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1</v>
+        <v>1.00325117415149</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.001337316151444</v>
+        <v>1.005456744856809</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>1.002454115135464</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1.000647435585339</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1.001294033367427</v>
+        <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>1</v>
@@ -5065,43 +5065,43 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>1.065178872169261</v>
+        <v>2.062288732394366</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.020467150751056</v>
+        <v>1.048592675139475</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.005664254146003</v>
+        <v>1.010603586315575</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.018588191725804</v>
+        <v>1.053778103332553</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v>1.15802706329063</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.009221572119054</v>
+        <v>1.007149007865841</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.007442852068122</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.004871180793598</v>
+        <v>1.003996769331414</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.003206004813965</v>
+        <v>1.000399041281824</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.005381175276135</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>1.000397927086387</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.002420310399415</v>
+        <v>1.086490848612694</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>1.02759488028248</v>
       </c>
       <c r="O41" s="4" t="n">
         <v>1</v>
@@ -5140,43 +5140,43 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>2.105596873926486</v>
+        <v>1.924349895273365</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.077457513122222</v>
+        <v>1.017417478940289</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.015294905029557</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.051024060538361</v>
+        <v>1.001379204870003</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.150327182273482</v>
+        <v>1.02448542726841</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.008802292426198</v>
+        <v>1.007170066049752</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.011014907084154</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.003821203153196</v>
+        <v>1.000073348553647</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.000381579312006</v>
+        <v>1.000208001241553</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.000380520515535</v>
+        <v>1.000366639608663</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.082708908461505</v>
+        <v>1</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1.02648042846254</v>
+        <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
         <v>1</v>
@@ -5215,37 +5215,37 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>1.926640949809524</v>
+        <v>10.49859272185844</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.023251544089215</v>
+        <v>1.021535560819736</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.000199521179607</v>
+        <v>1.002478075747312</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.001369437383389</v>
+        <v>1.01302985728509</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.024704902354369</v>
+        <v>1.021461605921992</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.007117832453935</v>
+        <v>1.001402247222057</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.010935231121384</v>
+        <v>1.008004495163532</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.000072823728418</v>
+        <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.000206513054742</v>
+        <v>1.005330261509005</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1</v>
+        <v>1.001929186216387</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.000364016953289</v>
+        <v>1.000061144056246</v>
       </c>
       <c r="M43" s="4" t="n">
         <v>1</v>
@@ -5290,37 +5290,37 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>10.45048809640816</v>
+        <v>2.068853250756403</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.022435984949842</v>
+        <v>1.033562383106343</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.003902518922855</v>
+        <v>1.036239133640773</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.013444042369497</v>
+        <v>1.23262982038431</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.021290446014429</v>
+        <v>1.18448461119993</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.001391297196159</v>
+        <v>1.193548840342097</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.007942075605138</v>
+        <v>1.003004098906443</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.005289023310294</v>
+        <v>2.254685576712885</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.001914339364356</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.000060674395911</v>
+        <v>1.00349389617412</v>
       </c>
       <c r="M44" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5365,52 +5365,52 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>2.122430716345403</v>
+        <v>1.025730151254869</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.033000261014476</v>
+        <v>1.085625718986464</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.039553527811864</v>
+        <v>1.442461043523355</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.226157474347596</v>
+        <v>1.015031586935695</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.180298505035062</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.189827933392015</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.002955560188322</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>2.234472738925493</v>
+        <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.00346870622329</v>
+        <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5440,16 +5440,16 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>1.03165769119045</v>
+        <v>1.154781673571407</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.085851491201812</v>
+        <v>1.027490430101027</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.439827350257241</v>
+        <v>1.002847411769857</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.014969445029927</v>
+        <v>1.008625125526381</v>
       </c>
       <c r="F46" s="4" t="n">
         <v>1</v>
@@ -5458,13 +5458,13 @@
         <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1</v>
+        <v>1.000663926156539</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1</v>
+        <v>1.039809139063673</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>1</v>
@@ -5515,34 +5515,34 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>1.163616532874703</v>
+        <v>1.036997188040969</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.07667994778128</v>
+        <v>1.006633335395716</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.002696692557459</v>
+        <v>1.008273967615691</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.008169808194724</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00088947946548</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000732033768425</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.00062916174767</v>
+        <v>1.011703972591637</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.037725969123558</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1</v>
+        <v>1.047720369049089</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>1</v>
@@ -5590,37 +5590,37 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>1.119347632322776</v>
+        <v>1.045922847348815</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.006129466986498</v>
+        <v>1.009816562769692</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.00764930556599</v>
+        <v>1.007570557247643</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1</v>
+        <v>1.05016416556128</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.000822835961754</v>
+        <v>1.003325718646626</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.000677231844633</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.010828376192949</v>
+        <v>1.014044127209457</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1</v>
+        <v>1.01855849262937</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.044188561429331</v>
+        <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1</v>
+        <v>1.01495700405226</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>1</v>
@@ -5665,40 +5665,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>1.045922847348815</v>
+        <v>1.063925151562564</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.009816562769692</v>
+        <v>1.009678112993498</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.007570557247643</v>
+        <v>1.044518948849398</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.05016416556128</v>
+        <v>1.065436648096866</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.003325718646626</v>
+        <v>1.02738451826267</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.014044127209457</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.01855849262937</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1</v>
+        <v>1.002676244768276</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.013597276411146</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5740,37 +5740,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>1.063925151562564</v>
+        <v>1.14976080241996</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.009678112993498</v>
+        <v>1.007243773252512</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.044518948849398</v>
+        <v>1.011125213749188</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.065436648096866</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.02738451826267</v>
+        <v>1.02434347455105</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5815,19 +5815,19 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>1.14976080241996</v>
+        <v>1.103151977390671</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.007243773252512</v>
+        <v>1.093833817651945</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.011125213749188</v>
+        <v>1.065201216066602</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.02434347455105</v>
+        <v>1.002155560409701</v>
       </c>
       <c r="G51" s="4" t="n">
         <v>1</v>
@@ -5836,13 +5836,13 @@
         <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1</v>
+        <v>1.002395238266327</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5890,19 +5890,19 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>1.103151977390671</v>
+        <v>1.111375244340753</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.093833817651945</v>
+        <v>1.029460491452628</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.065201216066602</v>
+        <v>1</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1</v>
+        <v>1.00909363968795</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.002155560409701</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>1</v>
@@ -5911,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1</v>
+        <v>1.00014091007152</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>1</v>
@@ -5965,25 +5965,25 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>1.111375244340753</v>
+        <v>1.933622069908432</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.029460491452628</v>
+        <v>1.036342533906131</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.00909363968795</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1</v>
+        <v>1.001402722853385</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1</v>
+        <v>1.000121585792504</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>1</v>
@@ -6040,22 +6040,22 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>1.933622069908432</v>
+        <v>16.90820427553444</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.036342533906131</v>
+        <v>1.002809638295595</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.018781080344292</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.001402722853385</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.001650069715446</v>
       </c>
       <c r="H54" s="4" t="n">
         <v>1</v>
@@ -6115,19 +6115,19 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>16.90820427553444</v>
+        <v>1.004298290623548</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.002809638295595</v>
+        <v>1</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.018781080344292</v>
+        <v>1.002972148884449</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1</v>
+        <v>1.002889257857818</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>1.05392517667513</v>
       </c>
       <c r="G55" s="4" t="n">
         <v>1</v>
@@ -6190,19 +6190,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>1.004298290623548</v>
+        <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.002972148884449</v>
+        <v>1.373877551020408</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.000370417674079</v>
+        <v>2.313131313131313</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1</v>
+        <v>1.051374261494991</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6265,16 +6265,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v/>
+        <v>1.026597296508801</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v/>
+        <v>1.449380318603072</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.292244897959184</v>
+        <v>1.011709946264963</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.002153378705023</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6340,13 +6340,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>1.026597296508801</v>
+        <v>1.109018214958988</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.449380318603072</v>
+        <v>1.007035812284528</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1</v>
+        <v>1.002794662195207</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6415,7 +6415,7 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>1.100357058140551</v>
+        <v>1.067263186302438</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>1</v>
+        <v>1.049549830212779</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6576,7 +6576,7 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -6711,61 +6711,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.6619986080119327</v>
+        <v>0.6458245514290374</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.6839015988707793</v>
+        <v>0.6712122445040976</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.6970132242137638</v>
+        <v>0.8385667126983993</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.7844962503645764</v>
+        <v>0.7605749161455859</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.3185891605059549</v>
+        <v>0.2986200676192456</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.296742945382206</v>
+        <v>0.2643332680258607</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.2000349976860124</v>
+        <v>0.6413318385509181</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.7095616195105001</v>
+        <v>0.4713460818042473</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.05668841038050578</v>
+        <v>0.09017410441895078</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>1.303261341571242</v>
+        <v>1.298951881642958</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>1.263108627387671</v>
+        <v>1.270799997187994</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>1.285972539501978</v>
+        <v>1.05123052152862</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>1.041993557221281</v>
+        <v>1.075153763145261</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>2.403295644430561</v>
+        <v>2.388394114620517</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>2.586110455798049</v>
+        <v>2.593342394523944</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>4.207891384161469</v>
+        <v>1.051345363721311</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>1.042318118216451</v>
+        <v>1.075277077158068</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>1.263108627387671</v>
+        <v>1.270799997187994</v>
       </c>
     </row>
     <row r="3">
@@ -6774,62 +6774,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.8627571939959261</v>
+        <v>0.8388950162899674</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.8638420098179039</v>
+        <v>0.8529765184283543</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.8963398660086356</v>
+        <v>0.8815269227264787</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.8174400385441419</v>
+        <v>0.8177349832478183</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.7656639418067502</v>
+        <v>0.7132224120093871</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.7674100337372323</v>
+        <v>0.6855066702545249</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.8417255432937308</v>
+        <v>0.6742612550673719</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.7395889320068016</v>
+        <v>0.5068276371723788</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.360708406254642</v>
+        <v>0.5737779075488904</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.047874656152928</v>
+        <v>1.041779666184607</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.053579107134053</v>
+        <v>1.053709607704907</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.082124887071053</v>
+        <v>1.084761452574823</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.212652317163371</v>
+        <v>1.140880085016503</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.053916921703764</v>
+        <v>1.044231331707026</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.058608610537416</v>
+        <v>1.058691005564509</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.09770649816096</v>
+        <v>1.091845153836639</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.224690159301536</v>
+        <v>1.152138710295867</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.053579107134053</v>
+        <v>1.053709607704907</v>
       </c>
     </row>
     <row r="4">
@@ -6838,62 +6838,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.904061398001946</v>
+        <v>0.8739437700344924</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.9101258934088328</v>
+        <v>0.8987895526146384</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.9699516762818775</v>
+        <v>0.9562464251805889</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.9912705568826685</v>
+        <v>0.9329375572087395</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.8069461846085403</v>
+        <v>0.7447691890958595</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.8123868695270428</v>
+        <v>0.7257397460529416</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.9239675985415926</v>
+        <v>0.73618888376512</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.905767286957063</v>
+        <v>0.5839357402340862</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.6697173802329535</v>
+        <v>0.707162585394653</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.027180127021885</v>
+        <v>1.033965334860385</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.013581375432241</v>
+        <v>1.015102753468986</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.004248889798345</v>
+        <v>1.007342562716462</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.003480567579524</v>
+        <v>1.010529046620042</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.046793054524576</v>
+        <v>1.051074513118093</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.037730005102017</v>
+        <v>1.045568774353153</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.052333021197987</v>
+        <v>1.06835589811822</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.098405682281211</v>
+        <v>1.12946071982686</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.013581375432241</v>
+        <v>1.015102753468986</v>
       </c>
     </row>
     <row r="5">
@@ -6902,62 +6902,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.9286339016352222</v>
+        <v>0.9036275628328613</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.9224866548578219</v>
+        <v>0.9123637496482776</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.9740728940641195</v>
+        <v>0.9632677245298695</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9947207410454906</v>
+        <v>0.9427605002421787</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.8447056614233264</v>
+        <v>0.7828079128142877</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.8430382302591093</v>
+        <v>0.7588108167799429</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.9723216144623231</v>
+        <v>0.7865117360995347</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9948999348180739</v>
+        <v>0.6595324814974211</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.7270485362069952</v>
+        <v>0.7403569036586483</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.014808588205092</v>
+        <v>1.0174304269912</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.011783591121526</v>
+        <v>1.013178521370014</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.001555842173735</v>
+        <v>1.007256621150057</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.000176306419994</v>
+        <v>1.01607511875224</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.026181499085488</v>
+        <v>1.092010781724991</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.012350343687069</v>
+        <v>1.120957794047219</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.001577342893672</v>
+        <v>1.221211264897017</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.000123472558026</v>
+        <v>1.439391316564718</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.011783591121526</v>
+        <v>1.013178521370014</v>
       </c>
     </row>
     <row r="6">
@@ -6966,62 +6966,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.9423856586778261</v>
+        <v>0.9193781770940554</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9333568604137311</v>
+        <v>0.9243873548202437</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9755883977529961</v>
+        <v>0.97025779347286</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9948961166982379</v>
+        <v>0.957915487238493</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.8668213219253877</v>
+        <v>0.8548346808128391</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8534500421441477</v>
+        <v>0.8505948992768134</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.9738552990512587</v>
+        <v>0.960496992098462</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9950227776580062</v>
+        <v>0.9493253268597683</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.7421780191103644</v>
+        <v>0.7487255874670744</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.013676287643763</v>
+        <v>1.020574005472118</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.008620232164575</v>
+        <v>1.009188498535115</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.0045126971412</v>
+        <v>1.009538134293485</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.000707162516766</v>
+        <v>1.026679864768428</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.025587403815318</v>
+        <v>1.031888139452458</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.019977777976687</v>
+        <v>1.013733409363253</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.004650292969022</v>
+        <v>1.018142953572201</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.000467574284462</v>
+        <v>1.035099812723374</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.008620232164575</v>
+        <v>1.009188498535115</v>
       </c>
     </row>
     <row r="7">
@@ -7030,62 +7030,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9552739960172614</v>
+        <v>0.9382934687405347</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9414026132428963</v>
+        <v>0.9328810866758883</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9799909327265236</v>
+        <v>0.9795122426063045</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9955996699400428</v>
+        <v>0.9834725428975987</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8890010291252204</v>
+        <v>0.8820937683233963</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8705000776002978</v>
+        <v>0.8622764672308767</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.978384011501282</v>
+        <v>0.9779232444323431</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9954880247212929</v>
+        <v>0.982646468046102</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.7527763172612798</v>
+        <v>0.7544147809190932</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.005851860627391</v>
+        <v>1.004719459932241</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.004745122720526</v>
+        <v>1.004815227209949</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1</v>
+        <v>1.00022796844552</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1</v>
+        <v>1.000418351081761</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.014572327856142</v>
+        <v>1.012277894395732</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.015991371869401</v>
+        <v>1.016327578652164</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1</v>
+        <v>1.000275011619241</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1</v>
+        <v>1.000550023238482</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.004745122720526</v>
+        <v>1.004815227209949</v>
       </c>
     </row>
     <row r="8">
@@ -7094,62 +7094,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9608641263029251</v>
+        <v>0.9427217071709392</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9458696841721581</v>
+        <v>0.9373731210680966</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9799909327265236</v>
+        <v>0.9797355404896188</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9955996699400428</v>
+        <v>0.9838839796998027</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9019558435860805</v>
+        <v>0.8929240224580046</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8844205680535462</v>
+        <v>0.8763553540694989</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.978384011501282</v>
+        <v>0.9781921846872877</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9954880247212929</v>
+        <v>0.9831869464387395</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9754098993852437</v>
+        <v>0.8709883798930732</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.003364039876377</v>
+        <v>1.004265220198474</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.003866914285459</v>
+        <v>1.002628040388275</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.001892993685844</v>
+        <v>1.000032760660877</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1</v>
+        <v>1.000060097851488</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.004239281139126</v>
+        <v>1.004405543793272</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.003944544338743</v>
+        <v>1.003128517151676</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.002340687868243</v>
+        <v>1.000020264298751</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1</v>
+        <v>1.000040528597501</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.003866914285459</v>
+        <v>1.002628040388275</v>
       </c>
     </row>
     <row r="9">
@@ -7158,62 +7158,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9640965115395886</v>
+        <v>0.9467426228379043</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9495272811660663</v>
+        <v>0.9398365754891466</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.981846049374359</v>
+        <v>0.9797676372734103</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9955996699400428</v>
+        <v>0.9839431090130961</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.905779487982119</v>
+        <v>0.8968578383430077</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.8879092041983301</v>
+        <v>0.8790970468256686</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9806741030874857</v>
+        <v>0.978212007065954</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9954880247212929</v>
+        <v>0.9832267936267602</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9754098993852437</v>
+        <v>0.8709883798930732</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.000424088210348</v>
+        <v>1.000634795131975</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.000272446277733</v>
+        <v>1.000216091737298</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1</v>
+        <v>1.00039736915621</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1</v>
+        <v>1.00070215641342</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.000587822573012</v>
+        <v>1.000721651001709</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.000324502240135</v>
+        <v>1.000217458074291</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1</v>
+        <v>1.000422691389641</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1</v>
+        <v>1.000845382779282</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.000272446277733</v>
+        <v>1.000216091737298</v>
       </c>
     </row>
     <row r="10">
@@ -7222,62 +7222,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9645053735037701</v>
+        <v>0.9473436104461154</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9497859763394261</v>
+        <v>0.9400396664075202</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.981846049374359</v>
+        <v>0.9801569667127159</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9955996699400428</v>
+        <v>0.9846339909775303</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9063119256113265</v>
+        <v>0.897505056700438</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.8881973327241286</v>
+        <v>0.8792882135765862</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9806741030874857</v>
+        <v>0.9786254888585845</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9954880247212929</v>
+        <v>0.9840579966262213</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9754098993852437</v>
+        <v>0.8709883798930732</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.026958314975325</v>
+        <v>1.033992807467516</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.041101119414673</v>
+        <v>1.04147274847242</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.009284484565208</v>
+        <v>1.002939582024781</v>
       </c>
       <c r="Q10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.086969276179783</v>
+        <v>1.088149445772653</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.108320026764119</v>
+        <v>1.109915876036526</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.009380743625488</v>
+        <v>1.003093082104895</v>
       </c>
       <c r="U10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.041101119414673</v>
+        <v>1.04147274847242</v>
       </c>
     </row>
     <row r="11">
@@ -7286,62 +7286,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9905068131580776</v>
+        <v>0.9795464794015919</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9888232431713342</v>
+        <v>0.9790256950465371</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9909619838651854</v>
+        <v>0.9830382185135281</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9955996699400428</v>
+        <v>0.9846339909775303</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9851332177748487</v>
+        <v>0.9766196300267352</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9844068915766252</v>
+        <v>0.9759359478604485</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9898735554287048</v>
+        <v>0.981652457845567</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9954880247212929</v>
+        <v>0.9840579966262213</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9762616177921207</v>
+        <v>0.8713318815165255</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.002667796980577</v>
+        <v>1.003690546598397</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.003983821257986</v>
+        <v>1.004121366278698</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.006589768198713</v>
+        <v>1.007570871250239</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1</v>
+        <v>1.000829044410251</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.003776070542327</v>
+        <v>1.004235683997804</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.004401782685105</v>
+        <v>1.004815212074214</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.007364760238222</v>
+        <v>1.008399435636228</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1</v>
+        <v>1.000892081589425</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.003983821257986</v>
+        <v>1.004121366278698</v>
       </c>
     </row>
     <row r="12">
@@ -7350,62 +7350,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9931492842434614</v>
+        <v>0.9831615413291191</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9927625382278706</v>
+        <v>0.9830606185320808</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9974921936325939</v>
+        <v>0.9904806742999587</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9955996699400428</v>
+        <v>0.9854502962838934</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9888531502987563</v>
+        <v>0.9807562821655808</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9887400367870657</v>
+        <v>0.9806352864202452</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9971637368305936</v>
+        <v>0.9898977844823854</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9954880247212929</v>
+        <v>0.9849358566479384</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9777315639941038</v>
+        <v>0.8718680485110205</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.000923363985745</v>
+        <v>1.00134070335177</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.001313289177346</v>
+        <v>1.001443502815674</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.002514111271662</v>
+        <v>1.002226135633749</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.004419778544344</v>
+        <v>1.004756001143861</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.001374707269167</v>
+        <v>1.001482816229052</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.001489266208264</v>
+        <v>1.00160638424814</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.002844330439072</v>
+        <v>1.00249283400871</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.004532425470382</v>
+        <v>1.00498566801742</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.001313289177346</v>
+        <v>1.001443502815674</v>
       </c>
     </row>
     <row r="13">
@@ -7414,41 +7414,41 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9940663225250004</v>
+        <v>0.9844796693029103</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9940663225250004</v>
+        <v>0.9844796693029103</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9902125339126107</v>
+        <v>0.9822105634975206</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9902125339126107</v>
+        <v>0.9822105634975206</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>1</v>
+        <v>0.9898464198476382</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>1</v>
+        <v>0.8776675796928644</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.004226634903442</v>
+        <v>1.00585684366829</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.004226634903442</v>
+        <v>1.00585684366829</v>
       </c>
       <c r="P13" s="22" t="n">
         <v>1</v>
@@ -7457,10 +7457,10 @@
         <v>1</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.007094101571743</v>
+        <v>1.007412080312347</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.007094101571743</v>
+        <v>1.007412080312347</v>
       </c>
       <c r="T13" s="22" t="n">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.004226634903442</v>
+        <v>1.00585684366829</v>
       </c>
     </row>
     <row r="14">
@@ -7478,41 +7478,41 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9982678779401207</v>
+        <v>0.990245612820627</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9982678779401207</v>
+        <v>0.990245612820627</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9972372022057999</v>
+        <v>0.9894907870777994</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9972372022057999</v>
+        <v>0.9894907870777994</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>1</v>
+        <v>0.9898464198476382</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>1</v>
+        <v>0.8779149036377517</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.001536258003157</v>
+        <v>1.002175657617473</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.001536258003157</v>
+        <v>1.002175657617473</v>
       </c>
       <c r="P14" s="22" t="n">
         <v>1</v>
@@ -7521,10 +7521,10 @@
         <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.002466169458898</v>
+        <v>1.002575380869254</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.002466169458898</v>
+        <v>1.002575380869254</v>
       </c>
       <c r="T14" s="22" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.001536258003157</v>
+        <v>1.002175657617473</v>
       </c>
     </row>
     <row r="15">
@@ -7542,41 +7542,41 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9998014749569009</v>
+        <v>0.9924000482313294</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9998014749569009</v>
+        <v>0.9924000482313294</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9996965581371569</v>
+        <v>0.9920391027211429</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9996965581371569</v>
+        <v>0.9920391027211429</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>1</v>
+        <v>0.9898464198476382</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>1</v>
+        <v>0.8779149036377517</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000198564463118</v>
+        <v>1.000287757334088</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000198564463118</v>
+        <v>1.000287757334088</v>
       </c>
       <c r="P15" s="22" t="n">
         <v>1</v>
@@ -7585,10 +7585,10 @@
         <v>1</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.000303533967756</v>
+        <v>1.000328951371626</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.000303533967756</v>
+        <v>1.000328951371626</v>
       </c>
       <c r="T15" s="22" t="n">
         <v>1</v>
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.000198564463118</v>
+        <v>1.000287757334088</v>
       </c>
     </row>
     <row r="16">
@@ -7606,31 +7606,31 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>1</v>
+        <v>0.9898464198476382</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>1</v>
+        <v>0.8779149036377517</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
@@ -7670,28 +7670,28 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>1</v>
+        <v>0.9898464198476382</v>
       </c>
       <c r="J17" s="34" t="n">
         <v>1</v>
@@ -7734,28 +7734,28 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>1</v>
+        <v>0.9898464198476382</v>
       </c>
       <c r="J18" s="34" t="n">
         <v>1</v>
@@ -7798,28 +7798,28 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>1</v>
+        <v>0.9898464198476382</v>
       </c>
       <c r="J19" s="34" t="n">
         <v>1</v>
@@ -7862,28 +7862,28 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>1</v>
+        <v>0.9898464198476382</v>
       </c>
       <c r="J20" s="34" t="n">
         <v>1</v>
@@ -7926,28 +7926,28 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>1</v>
+        <v>0.9926856186235575</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>1</v>
+        <v>0.9901370990202381</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>1</v>
+        <v>0.9923654353446898</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>1</v>
+        <v>0.9898464198476382</v>
       </c>
       <c r="J21" s="34" t="n">
         <v>1</v>
@@ -7957,31 +7957,31 @@
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1</v>
+        <v>1.007368275755404</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1</v>
+        <v>1.007368275755404</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1</v>
+        <v>1.007368275755404</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1</v>
+        <v>1.009961146784139</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1</v>
+        <v>1.007693299648892</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1</v>
+        <v>1.007693299648892</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1</v>
+        <v>1.007693299648892</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1</v>
+        <v>1.01025773286519</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1</v>
+        <v>1.007368275755404</v>
       </c>
     </row>
     <row r="22">
@@ -8193,7 +8193,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>208058.68</v>
+        <v>37093.25999999999</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v/>
+        <v>85490.59416666668</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>158736.8</v>
+        <v>30719.97</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>198024.77</v>
+        <v>33686.17</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>204863.99</v>
+        <v>34486.17</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>205185.52</v>
+        <v>35030.31</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>206815.06</v>
+        <v>35267.8</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>206850.18</v>
+        <v>36867.8</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>207130.04</v>
+        <v>36867.8</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>207130.04</v>
+        <v>37025.8</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>207139.41</v>
+        <v>37025.8</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>208049.61</v>
+        <v>37025.8</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37025.8</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37025.8</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37025.8</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37025.8</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37093.25999999999</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37093.25999999999</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37093.25999999999</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37093.25999999999</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37093.25999999999</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37093.25999999999</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37093.25999999999</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37093.25999999999</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37093.25999999999</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>208058.68</v>
+        <v>37093.25999999999</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>38808.49</v>
+        <v>35170.6</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v/>
+        <v>62790.19583333335</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8739,73 +8739,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>30719.97</v>
+        <v>29901.88</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>34220.55</v>
+        <v>31424.66</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>36081.6</v>
+        <v>31449.66</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>36625.74</v>
+        <v>31751.16</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>36971.23</v>
+        <v>33251.16</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>38571.23</v>
+        <v>33492.16</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>38571.23</v>
+        <v>33492.16</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>38729.23</v>
+        <v>33994.03</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>38729.23</v>
+        <v>33994.03</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>38741.03</v>
+        <v>33994.03</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>38741.03</v>
+        <v>34045.6</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>38741.03</v>
+        <v>34045.6</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>38741.03</v>
+        <v>34045.6</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>38741.03</v>
+        <v>34070.6</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>38808.49</v>
+        <v>34120.6</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>38808.49</v>
+        <v>34120.6</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>38808.49</v>
+        <v>34120.6</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>38808.49</v>
+        <v>34120.6</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>38808.49</v>
+        <v>34120.6</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>38808.49</v>
+        <v>34120.6</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>38808.49</v>
+        <v>35170.6</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>38808.49</v>
+        <v>35170.6</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>38808.49</v>
+        <v>35170.6</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>38688.88</v>
+        <v>36203.48</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v/>
+        <v>79660.32249999999</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8866,70 +8866,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>29967.42</v>
+        <v>31915.25</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>32331.15</v>
+        <v>33603.75</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>34254.71</v>
+        <v>34203.75</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>34556.21</v>
+        <v>34400.25</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>36196.52</v>
+        <v>35048.75</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>36437.52</v>
+        <v>35048.75</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>38037.52</v>
+        <v>35376.45</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>38539.39</v>
+        <v>35626.45</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>38562.31</v>
+        <v>35802.45</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>38562.31</v>
+        <v>35918.85</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>38613.88</v>
+        <v>36114.85</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>38613.88</v>
+        <v>36114.85</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>38613.88</v>
+        <v>36203.48</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>38638.88</v>
+        <v>36203.48</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>38688.88</v>
+        <v>36203.48</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>38688.88</v>
+        <v>36203.48</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>38688.88</v>
+        <v>36203.48</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>38688.88</v>
+        <v>36203.48</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>38688.88</v>
+        <v>36203.48</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>38688.88</v>
+        <v>36203.48</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>38688.88</v>
+        <v>36203.48</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>38688.88</v>
+        <v>36203.48</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>36707.89999999999</v>
+        <v>35085.47</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v/>
+        <v>70225.40647500001</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8993,67 +8993,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>31915.25</v>
+        <v>11644</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>33995.45</v>
+        <v>24013.29</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>34691.24</v>
+        <v>25180.16</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>34887.74</v>
+        <v>25447.16</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>35536.24</v>
+        <v>26815.66</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>35536.24</v>
+        <v>31053.26</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>35863.94</v>
+        <v>31275.26</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>36130.87</v>
+        <v>31275.26</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>36306.87</v>
+        <v>31400.26</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>36423.27</v>
+        <v>31412.79</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>36619.27</v>
+        <v>31412.79</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>36619.27</v>
+        <v>31425.29</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>36707.89999999999</v>
+        <v>34143.29</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>36707.89999999999</v>
+        <v>35085.47</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>36707.89999999999</v>
+        <v>35085.47</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>36707.89999999999</v>
+        <v>35085.47</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>36707.89999999999</v>
+        <v>35085.47</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>36707.89999999999</v>
+        <v>35085.47</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>36707.89999999999</v>
+        <v>35085.47</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>36707.89999999999</v>
+        <v>35085.47</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>36707.89999999999</v>
+        <v>35085.47</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>36522.42</v>
+        <v>68211.84999999999</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v/>
+        <v>77778.23916666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9120,64 +9120,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>11644</v>
+        <v>33329.63</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>24517.57</v>
+        <v>64137.87000000001</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>26416.64</v>
+        <v>65254.99000000001</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>26820.68</v>
+        <v>65254.99000000001</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>28189.18</v>
+        <v>65344.99000000001</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>32426.78</v>
+        <v>66944.99000000001</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>32712.21</v>
+        <v>67424.99000000001</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>32712.21</v>
+        <v>68167.67</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>32837.21</v>
+        <v>68172.67</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>32849.74</v>
+        <v>68186.84999999999</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>32849.74</v>
+        <v>68186.84999999999</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>32862.24</v>
+        <v>68211.84999999999</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>35580.24</v>
+        <v>68211.84999999999</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>36522.42</v>
+        <v>68211.84999999999</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>36522.42</v>
+        <v>68211.84999999999</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>36522.42</v>
+        <v>68211.84999999999</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>36522.42</v>
+        <v>68211.84999999999</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>36522.42</v>
+        <v>68211.84999999999</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>36522.42</v>
+        <v>68211.84999999999</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>36522.42</v>
+        <v>68211.84999999999</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>68703.12</v>
+        <v>35328.57</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v/>
+        <v>84301.66999999998</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9247,61 +9247,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>33329.63</v>
+        <v>3123.05</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>64214.23000000001</v>
+        <v>32787.63</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>65707.31000000001</v>
+        <v>33493.73</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>65720.42000000001</v>
+        <v>33576.73</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>65810.42000000001</v>
+        <v>34014.23</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>67436.26000000001</v>
+        <v>34744.23</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>67916.26000000001</v>
+        <v>34792.95</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>68658.94</v>
+        <v>35071.45</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>68663.94</v>
+        <v>35071.45</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>68678.12</v>
+        <v>35258.39</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>68678.12</v>
+        <v>35326.41</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>68703.12</v>
+        <v>35328.57</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>68703.12</v>
+        <v>35328.57</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>68703.12</v>
+        <v>35328.57</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>68703.12</v>
+        <v>35328.57</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>68703.12</v>
+        <v>35328.57</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>68703.12</v>
+        <v>35328.57</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>68703.12</v>
+        <v>35328.57</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>68703.12</v>
+        <v>35328.57</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>35602.02</v>
+        <v>30843.85</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9351,7 +9351,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v/>
+        <v>70809.73666666668</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9374,58 +9374,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>3154.09</v>
+        <v>3519.95</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>32961.78</v>
+        <v>7282.26</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>33701.31</v>
+        <v>7526.67</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>33832.82999999999</v>
+        <v>7799.43</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>34287.67999999999</v>
+        <v>9613.810000000001</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>35017.67999999999</v>
+        <v>11387.41</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>35066.39999999999</v>
+        <v>13591.43</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>35344.89999999999</v>
+        <v>13632.26</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>35344.89999999999</v>
+        <v>13632.26</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>35531.84</v>
+        <v>30736.46</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>35599.85999999999</v>
+        <v>30736.46</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>35602.02</v>
+        <v>30843.85</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>35602.02</v>
+        <v>30843.85</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>35602.02</v>
+        <v>30843.85</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>35602.02</v>
+        <v>30843.85</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>35602.02</v>
+        <v>30843.85</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>35602.02</v>
+        <v>30843.85</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>35602.02</v>
+        <v>30843.85</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>31067.06</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v/>
+        <v>77134.02333333333</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9501,55 +9501,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>3519.95</v>
+        <v>34356.58</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>7470.85</v>
+        <v>35240.58</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>7717.39</v>
+        <v>38258.08000000001</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>8022.64</v>
+        <v>55185.79000000001</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>9837.02</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>11610.62</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>13814.64</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>13855.47</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>13855.47</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>30959.67</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>30959.67</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>31067.06</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>31067.06</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>31067.06</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>31067.06</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>31067.06</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>31067.06</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>56244.41</v>
+        <v>39179.79</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v/>
+        <v>66581.40916666666</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9628,52 +9628,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>34356.58</v>
+        <v>31374.58</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>35444.23</v>
+        <v>36230.79</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>38487.17000000001</v>
+        <v>37226.79</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>55414.88</v>
+        <v>37332.79</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>56244.41</v>
+        <v>37654.79</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>56244.41</v>
+        <v>37654.79</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>56244.41</v>
+        <v>37654.79</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>56244.41</v>
+        <v>37679.79</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>56244.41</v>
+        <v>37679.79</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>56244.41</v>
+        <v>39179.79</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>56244.41</v>
+        <v>39179.79</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>56244.41</v>
+        <v>39179.79</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>56244.41</v>
+        <v>39179.79</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>56244.41</v>
+        <v>39179.79</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>56244.41</v>
+        <v>39179.79</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>56244.41</v>
+        <v>39179.79</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>41260.41</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v/>
+        <v>76067.61500000001</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9755,49 +9755,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>31374.58</v>
+        <v>32418.68</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>36507.98</v>
+        <v>33618.08</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>39307.41</v>
+        <v>33841.08</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>39413.41</v>
+        <v>34121.08</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>39735.41</v>
+        <v>34121.08</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>39735.41</v>
+        <v>34151.42999999999</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>39735.41</v>
+        <v>34176.42999999999</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>39760.41</v>
+        <v>34576.42999999999</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>39760.41</v>
+        <v>34576.42999999999</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>41260.41</v>
+        <v>34576.42999999999</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>41260.41</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>41260.41</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>41260.41</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>41260.41</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>41260.41</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>38989.98</v>
+        <v>37322.07000000001</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v/>
+        <v>72901.14583333333</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9882,46 +9882,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>32502.53</v>
+        <v>31751.08</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>36381.63</v>
+        <v>33209.18</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>36604.63</v>
+        <v>33535.18</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>36884.63</v>
+        <v>33789.06</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>36884.63</v>
+        <v>35484.06</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>36914.98</v>
+        <v>35602.07000000001</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>36939.98</v>
+        <v>35602.07000000001</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>37339.98</v>
+        <v>36102.07000000001</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>37339.98</v>
+        <v>36102.07000000001</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>37339.98</v>
+        <v>36772.07000000001</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>38989.98</v>
+        <v>36772.07000000001</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>38989.98</v>
+        <v>37322.07000000001</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>38989.98</v>
+        <v>37322.07000000001</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>38989.98</v>
+        <v>37322.07000000001</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>37272.07000000001</v>
+        <v>37465.79</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9986,7 +9986,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v/>
+        <v>66947.35000000001</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10012,43 +10012,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>31751.08</v>
+        <v>30423.08</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>33209.18</v>
+        <v>32367.88</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>33535.18</v>
+        <v>32681.14</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>33789.06</v>
+        <v>34136.07</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>35484.06</v>
+        <v>36369.82</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>35602.07000000001</v>
+        <v>37365.79</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>35602.07000000001</v>
+        <v>37365.79</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>36102.07000000001</v>
+        <v>37365.79</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>36102.07000000001</v>
+        <v>37365.79</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>36772.07000000001</v>
+        <v>37365.79</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>36772.07000000001</v>
+        <v>37465.79</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>37272.07000000001</v>
+        <v>37465.79</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>37272.07000000001</v>
+        <v>37465.79</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>37365.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>66947.35000000001</v>
+        <v>74898.13833333334</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10148,40 +10148,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>30423.08</v>
+        <v>34519.58</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>32367.88</v>
+        <v>39689.26</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>32681.14</v>
+        <v>39976.76</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>34136.07</v>
+        <v>40421.51000000001</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>36369.82</v>
+        <v>40421.51000000001</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>37365.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>37365.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>37365.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>37365.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>37365.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>37365.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>37365.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>41405.51000000001</v>
+        <v>41849.50000000001</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>74898.13833333334</v>
+        <v>76192.5475</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10284,37 +10284,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>34519.58</v>
+        <v>32411.4</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>39689.26</v>
+        <v>35754.7</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>39976.76</v>
+        <v>39109.7</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>40421.51000000001</v>
+        <v>41659.7</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>40421.51000000001</v>
+        <v>41659.7</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41849.50000000001</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41849.50000000001</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41849.50000000001</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>41749.50000000001</v>
+        <v>36624.26000000001</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>76192.5475</v>
+        <v>61517.36916666667</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10420,34 +10420,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>32411.4</v>
+        <v>31718</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>35754.7</v>
+        <v>35250.6</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>39109.7</v>
+        <v>36289.10000000001</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>41659.7</v>
+        <v>36289.10000000001</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>41659.7</v>
+        <v>36619.10000000001</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>41749.50000000001</v>
+        <v>36619.10000000001</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>41749.50000000001</v>
+        <v>36619.10000000001</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>41749.50000000001</v>
+        <v>36619.10000000001</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>41749.50000000001</v>
+        <v>36624.26000000001</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>41749.50000000001</v>
+        <v>36624.26000000001</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>36619.10000000001</v>
+        <v>71398.59999999998</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>61517.36916666667</v>
+        <v>72644.10897499998</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10556,31 +10556,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>31718</v>
+        <v>35575.68</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>35250.6</v>
+        <v>68789.92</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>36289.10000000001</v>
+        <v>71289.92000000001</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>36289.10000000001</v>
+        <v>71289.92</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>36619.10000000001</v>
+        <v>71289.92</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>36619.10000000001</v>
+        <v>71389.92</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>36619.10000000001</v>
+        <v>71389.91999999998</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>36619.10000000001</v>
+        <v>71398.59999999998</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>36619.10000000001</v>
+        <v>71398.59999999998</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>71389.91999999998</v>
+        <v>36422.10000000001</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10662,7 +10662,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>72644.10897500001</v>
+        <v>68774.0675</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10694,28 +10694,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>35575.68</v>
+        <v>2105</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>68789.92</v>
+        <v>35591.77</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>71289.92000000001</v>
+        <v>35691.77</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>71289.92</v>
+        <v>36362.10000000001</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>71289.92</v>
+        <v>36362.10000000001</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>71389.92</v>
+        <v>36362.10000000001</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>71389.91999999998</v>
+        <v>36422.10000000001</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>71389.91999999998</v>
+        <v>36422.10000000001</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>36362.10000000001</v>
+        <v>35668.19</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>68774.0675</v>
+        <v>63530.44749999999</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10832,25 +10832,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>2105</v>
+        <v>33501.69</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>35591.77</v>
+        <v>33645.69</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>35691.77</v>
+        <v>33645.69</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>36362.10000000001</v>
+        <v>33745.69</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>36362.10000000001</v>
+        <v>33843.19</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>36362.10000000001</v>
+        <v>35668.19</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>36362.10000000001</v>
+        <v>35668.19</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>33758.19</v>
+        <v>2046.5</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>63530.44749999999</v>
+        <v>76526.11916666667</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10970,22 +10970,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>33501.69</v>
+        <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>33645.69</v>
+        <v/>
       </c>
       <c r="U26" s="22" t="n">
-        <v>33645.69</v>
+        <v>612.5</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>33745.69</v>
+        <v>841.5</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>33758.19</v>
+        <v>1946.5</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>33758.19</v>
+        <v>2046.5</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>791.5</v>
+        <v>46538.65</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>76526.11916666667</v>
+        <v>62919.23583333332</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11108,19 +11108,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v/>
+        <v>30849</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v/>
+        <v>31669.5</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>612.5</v>
+        <v>45901.15</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>791.5</v>
+        <v>46438.65</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>791.5</v>
+        <v>46538.65</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>45901.15</v>
+        <v>35882.50000000001</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>62919.23583333334</v>
+        <v>61890.5225</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11246,16 +11246,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>30849</v>
+        <v>32039.6</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>31669.5</v>
+        <v>35532.5</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>45901.15</v>
+        <v>35782.50000000001</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>45901.15</v>
+        <v>35882.50000000001</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>35255</v>
+        <v>35592.16</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11352,7 +11352,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>61890.5225</v>
+        <v>69032.43833333334</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>0</v>
@@ -11383,13 +11383,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>32039.6</v>
+        <v>33349</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>35255</v>
+        <v>35592.16</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>35255</v>
+        <v>35592.16</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11463,7 +11463,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>33219</v>
+        <v>33689.5</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11490,7 +11490,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>69032.43833333334</v>
+        <v>56166.315</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>105</v>
@@ -11521,10 +11521,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>33219</v>
+        <v>32099</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>33219</v>
+        <v>33689.5</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11601,7 +11601,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v/>
+        <v>31481</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11628,7 +11628,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>56166.315</v>
+        <v>66947.215</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>110</v>
@@ -11659,7 +11659,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v/>
+        <v>31481</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
@@ -11806,21 +11806,7 @@
       <c r="H35" s="26" t="n">
         <v>0.075</v>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Previous Quarter</t>
-        </is>
-      </c>
-      <c r="J35" s="25" t="inlineStr">
-        <is>
-          <t>Liability Change</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Annzd Prem Change</t>
-        </is>
-      </c>
+      <c r="J35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="C36" s="22" t="n"/>
@@ -11831,10 +11817,7 @@
         <v/>
       </c>
       <c r="I36" s="28" t="n"/>
-      <c r="J36" s="29">
-        <f>(H36-I36)/I36</f>
-        <v/>
-      </c>
+      <c r="J36" s="29" t="n"/>
       <c r="K36" s="29" t="n"/>
     </row>
     <row r="37">

--- a/Process Results/Unified_IBNP_NMS_PLICA.xlsx
+++ b/Process Results/Unified_IBNP_NMS_PLICA.xlsx
@@ -3734,20 +3734,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7605749161455859</v>
+        <v>0.6300987863618009</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8385667126983993</v>
+        <v>0.6549323268519874</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.6712122445040976</v>
+        <v>0.6760598097730434</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.09017410441895078</v>
+        <v>0.1620464460718041</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3772,20 +3772,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8177349832478183</v>
+        <v>0.9576045625188265</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8815269227264787</v>
+        <v>0.9370397421577196</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8529765184283543</v>
+        <v>0.9064407010987665</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5737779075488904</v>
+        <v>0.6096500339622035</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3810,20 +3810,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9329375572087395</v>
+        <v>0.9738727042071915</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9562464251805889</v>
+        <v>0.9588484153477608</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8987895526146384</v>
+        <v>0.953853765630553</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.707162585394653</v>
+        <v>0.6901633686067012</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3848,20 +3848,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9427605002421787</v>
+        <v>0.9789834671286565</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9632677245298695</v>
+        <v>0.9660701849526465</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.9123637496482776</v>
+        <v>0.9608716461835</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.7403569036586483</v>
+        <v>0.8380498712327908</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3886,20 +3886,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.957915487238493</v>
+        <v>0.9898402740903294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.97025779347286</v>
+        <v>0.9780179704812748</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9243873548202437</v>
+        <v>0.9708991093174461</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7487255874670744</v>
+        <v>0.8380498712327908</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3924,20 +3924,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9834725428975987</v>
+        <v>0.9898402740903294</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9795122426063045</v>
+        <v>0.9784197349879653</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9328810866758883</v>
+        <v>0.976676691507347</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7544147809190932</v>
+        <v>0.8512369815921914</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3962,20 +3962,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9838839796998027</v>
+        <v>0.9899309615068346</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9797355404896188</v>
+        <v>0.9785174911869066</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9373731210680966</v>
+        <v>0.976840191379503</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -4000,20 +4000,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9839431090130961</v>
+        <v>0.9984221173113315</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9797676372734103</v>
+        <v>0.989294413942481</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9398365754891466</v>
+        <v>0.9829029692891266</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4038,20 +4038,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9846339909775303</v>
+        <v>0.9984221173113315</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9801569667127159</v>
+        <v>0.9958807673903042</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9400396664075202</v>
+        <v>0.9866555523030226</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4076,20 +4076,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9846339909775303</v>
+        <v>0.9996277351405294</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9830382185135281</v>
+        <v>0.9977366370176804</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9790256950465371</v>
+        <v>0.9919481276686775</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.8713318815165255</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4114,20 +4114,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9854502962838934</v>
+        <v>0.9996277351405294</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9904806742999587</v>
+        <v>0.9979455174978584</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9830606185320808</v>
+        <v>0.9954651866324902</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8718680485110205</v>
+        <v>0.8753167689959469</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4152,20 +4152,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9901370990202381</v>
+        <v>0.9996277351405294</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>0.9991789075880863</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9844796693029103</v>
+        <v>0.9974147130202083</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8776675796928644</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4190,20 +4190,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9901370990202381</v>
+        <v>0.9996277351405294</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>0.9995742972820603</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.990245612820627</v>
+        <v>0.9986194639187402</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4228,20 +4228,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9901370990202381</v>
+        <v>0.9997932904733533</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>0.9998927825271545</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9924000482313294</v>
+        <v>0.9999298508862737</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4266,20 +4266,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9901370990202381</v>
+        <v>0.9997932904733533</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>0.9998927825271545</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>0.9999298508862737</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4304,13 +4304,13 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9901370990202381</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
@@ -4342,13 +4342,13 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9901370990202381</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
@@ -4380,13 +4380,13 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9901370990202381</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
@@ -4418,13 +4418,13 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9901370990202381</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
@@ -4456,13 +4456,13 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9901370990202381</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
@@ -4840,73 +4840,73 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>1.096556083876384</v>
+        <v>10.49859272185844</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.023748618498333</v>
+        <v>1.021535560819736</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.01577849903309</v>
+        <v>1.002478075747312</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.006779557474655</v>
+        <v>1.01302985728509</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.045367162113883</v>
+        <v>1.021461605921992</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1</v>
+        <v>1.001402247222057</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.004285582540862</v>
+        <v>1.008004495163532</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1</v>
+        <v>1.005330261509005</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1</v>
+        <v>1.001929186216387</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1</v>
+        <v>1.000061144056246</v>
       </c>
       <c r="M38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1</v>
+        <v>1.000707642568041</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1.001821972786543</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="15.6" customHeight="1">
@@ -4915,70 +4915,70 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>1.050925894960451</v>
+        <v>2.068853250756403</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.000795553555711</v>
+        <v>1.033562383106343</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.009586749109529</v>
+        <v>1.036239133640773</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.047242368467798</v>
+        <v>1.23262982038431</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.00724786744282</v>
+        <v>1.18448461119993</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1</v>
+        <v>1.193548840342097</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.014984700897165</v>
+        <v>1.003004098906443</v>
       </c>
       <c r="I39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1</v>
+        <v>2.254685576712885</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.001517031078692</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1</v>
+        <v>1.00349389617412</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1.00073430927932</v>
+        <v>1.01621068705755</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1.001467540929716</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1.03077319859557</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4990,40 +4990,40 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>1.052905742552541</v>
+        <v>1.025730151254869</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.017855150094856</v>
+        <v>1.085625718986464</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.00574498410262</v>
+        <v>1.442461043523355</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.018851607183087</v>
+        <v>1.015031586935695</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.009349834159563</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.007066848143327</v>
+        <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.004940149804429</v>
+        <v>1</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.00325117415149</v>
+        <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.005456744856809</v>
+        <v>1</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.002454115135464</v>
+        <v>1.008926129494574</v>
       </c>
       <c r="N40" s="4" t="n">
         <v>1</v>
@@ -5065,43 +5065,43 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>2.062288732394366</v>
+        <v>1.154781673571407</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.048592675139475</v>
+        <v>1.027490430101027</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.010603586315575</v>
+        <v>1.002847411769857</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.053778103332553</v>
+        <v>1.008625125526381</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.15802706329063</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.007149007865841</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1</v>
+        <v>1.000663926156539</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.003996769331414</v>
+        <v>1</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.000399041281824</v>
+        <v>1.039809139063673</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.000397927086387</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.086490848612694</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1.02759488028248</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
         <v>1</v>
@@ -5140,37 +5140,37 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>1.924349895273365</v>
+        <v>1.036997188040969</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.017417478940289</v>
+        <v>1.006633335395716</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.008273967615691</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.001379204870003</v>
+        <v>1</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.02448542726841</v>
+        <v>1.00088947946548</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.007170066049752</v>
+        <v>1.000732033768425</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.011014907084154</v>
+        <v>1.011703972591637</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.000073348553647</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.000208001241553</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1</v>
+        <v>1.047720369049089</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.000366639608663</v>
+        <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
         <v>1</v>
@@ -5215,37 +5215,37 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>10.49859272185844</v>
+        <v>1.045922847348815</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.021535560819736</v>
+        <v>1.009816562769692</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.002478075747312</v>
+        <v>1.007570557247643</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.01302985728509</v>
+        <v>1.03536647660515</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.021461605921992</v>
+        <v>1.003373250560398</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.001402247222057</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.008004495163532</v>
+        <v>1.014244174203971</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.005330261509005</v>
+        <v>1.018819130460673</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1.001929186216387</v>
+        <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.000061144056246</v>
+        <v>1.015163182029589</v>
       </c>
       <c r="M43" s="4" t="n">
         <v>1</v>
@@ -5290,55 +5290,55 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>2.068853250756403</v>
+        <v>1.063925151562564</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.033562383106343</v>
+        <v>1.009678112993498</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.036239133640773</v>
+        <v>1.044518948849398</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.23262982038431</v>
+        <v>1.065436648096866</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.18448461119993</v>
+        <v>1.02738451826267</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.193548840342097</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.003004098906443</v>
+        <v>1.000669061192069</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>2.254685576712885</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.002674455393962</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.00349389617412</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.001600393056535</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5365,19 +5365,19 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>1.025730151254869</v>
+        <v>1.14976080241996</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.085625718986464</v>
+        <v>1.007243773252512</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.442461043523355</v>
+        <v>1.011125213749188</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.015031586935695</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1</v>
+        <v>1.02434347455105</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>1</v>
@@ -5398,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1</v>
+        <v>1.002551834284857</v>
       </c>
       <c r="N45" s="4" t="n">
         <v>1</v>
@@ -5407,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v>1.000602247539638</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>1</v>
@@ -5440,37 +5440,37 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>1.154781673571407</v>
+        <v>1.103151977390671</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.027490430101027</v>
+        <v>1.093833817651945</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.002847411769857</v>
+        <v>1.065201216066602</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.008625125526381</v>
+        <v>1</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1</v>
+        <v>1.002155560409701</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.000663926156539</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v>1.002395238266327</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.039809139063673</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>1.000148149918159</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>1</v>
@@ -5515,46 +5515,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>1.036997188040969</v>
+        <v>1.111375244340753</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.006633335395716</v>
+        <v>1.029460491452628</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.008273967615691</v>
+        <v>1</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1</v>
+        <v>1.013502677112411</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.00088947946548</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.000732033768425</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.011703972591637</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1</v>
+        <v>1.000140297070891</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1</v>
+        <v>1.000582314283337</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.047720369049089</v>
+        <v>1.001503572274714</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>1.008898288761407</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1</v>
+        <v>1.000672241430401</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5590,37 +5590,37 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>1.045922847348815</v>
+        <v>1.933622069908432</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.009816562769692</v>
+        <v>1.036342533906131</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.007570557247643</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.05016416556128</v>
+        <v>1.006748780192207</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.003325718646626</v>
+        <v>1.001393319645361</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.014044127209457</v>
+        <v>1.000120771871396</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.01855849262937</v>
+        <v>1.000365332530511</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.01495700405226</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>1</v>
@@ -5665,40 +5665,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>1.063925151562564</v>
+        <v>16.90820427553444</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.009678112993498</v>
+        <v>1.00561927659119</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.044518948849398</v>
+        <v>1.028060361362403</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.065436648096866</v>
+        <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.02738451826267</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.001630607591565</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000068102702131</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.008274864407529</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.002676244768276</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5740,28 +5740,28 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>1.14976080241996</v>
+        <v>1.005790752645613</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.007243773252512</v>
+        <v>1.085107323815004</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.011125213749188</v>
+        <v>1.002734972420538</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1</v>
+        <v>1.002659324929685</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.02434347455105</v>
+        <v>1.049645085245372</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1</v>
+        <v>1.021899168453587</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1</v>
+        <v>1.045326335106391</v>
       </c>
       <c r="J50" s="4" t="n">
         <v>1</v>
@@ -5815,34 +5815,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>1.103151977390671</v>
+        <v>1.030015707734793</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.093833817651945</v>
+        <v>1.018831899546805</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.065201216066602</v>
+        <v>1.006910683191951</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1</v>
+        <v>1.033117445551023</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.002155560409701</v>
+        <v>1.002900980821616</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1</v>
+        <v>1.000375458113858</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1</v>
+        <v>1.01906946780137</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.002395238266327</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00425609430143</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5890,19 +5890,19 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>1.111375244340753</v>
+        <v>1.025589446107784</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.029460491452628</v>
+        <v>1.432776840152655</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1</v>
+        <v>1.011407977943868</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.00909363968795</v>
+        <v>1.002098475143037</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1</v>
+        <v>1.000121247276386</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>1</v>
@@ -5911,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.00014091007152</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>1</v>
@@ -5965,25 +5965,25 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>1.933622069908432</v>
+        <v>1.109018214958988</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.036342533906131</v>
+        <v>1.007035812284528</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.002794662195207</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1</v>
+        <v>1.020817947467428</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.001402722853385</v>
+        <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.000121585792504</v>
+        <v>1.028139341241349</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>1</v>
@@ -6040,22 +6040,22 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>16.90820427553444</v>
+        <v>1.042708027227203</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.002809638295595</v>
+        <v>1</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.018781080344292</v>
+        <v>1.005672460484735</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1</v>
+        <v>1.022790624789108</v>
       </c>
       <c r="F54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.001650069715446</v>
+        <v>1.000277626181519</v>
       </c>
       <c r="H54" s="4" t="n">
         <v>1</v>
@@ -6115,19 +6115,19 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>1.004298290623548</v>
+        <v>1.049549830212779</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1</v>
+        <v>1.003031805161846</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.002972148884449</v>
+        <v>1.024263989554813</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.002889257857818</v>
+        <v>1.039754347969291</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.05392517667513</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
         <v>1</v>
@@ -6190,19 +6190,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v/>
+        <v>1.005581880973416</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v/>
+        <v>1.06215406732958</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.373877551020408</v>
+        <v>1.003759765992165</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>2.313131313131313</v>
+        <v>1.002584521339157</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.051374261494991</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6265,16 +6265,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>1.026597296508801</v>
+        <v>9.468616082682129</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.449380318603072</v>
+        <v>1.005324530110218</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.011709946264963</v>
+        <v>1.013536624119485</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.002153378705023</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6340,13 +6340,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>1.109018214958988</v>
+        <v>1.057180102802736</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.007035812284528</v>
+        <v>1.061080353236028</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.002794662195207</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6415,7 +6415,7 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>1.067263186302438</v>
+        <v>2.040715944763512</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>1.049549830212779</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6711,61 +6711,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.6458245514290374</v>
+        <v>0.6509182597590836</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.6712122445040976</v>
+        <v>0.6760598097730434</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.8385667126983993</v>
+        <v>0.6549323268519874</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.7605749161455859</v>
+        <v>0.6300987863618009</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.2986200676192456</v>
+        <v>0.298090237638912</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.2643332680258607</v>
+        <v>0.2844080377626674</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.6413318385509181</v>
+        <v>0.3584482711726789</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.4713460818042473</v>
+        <v>0.6943429932330313</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.09017410441895078</v>
+        <v>0.1620464460718041</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>1.298951881642958</v>
+        <v>1.319532058399292</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>1.270799997187994</v>
+        <v>1.340769985133509</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>1.05123052152862</v>
+        <v>1.430742847374348</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>1.075153763145261</v>
+        <v>1.519768936626665</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>2.388394114620517</v>
+        <v>2.649377536699856</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>2.593342394523944</v>
+        <v>3.14524752213695</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>1.051345363721311</v>
+        <v>2.603607306905761</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>1.075277077158068</v>
+        <v>1.36596534918875</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>1.270799997187994</v>
+        <v>1.340769985133509</v>
       </c>
     </row>
     <row r="3">
@@ -6774,62 +6774,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.8388950162899674</v>
+        <v>0.8589075111495883</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.8529765184283543</v>
+        <v>0.9064407010987665</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.8815269227264787</v>
+        <v>0.9370397421577196</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.8177349832478183</v>
+        <v>0.9576045625188265</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.7132224120093871</v>
+        <v>0.7897535795100552</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.6855066702545249</v>
+        <v>0.8945336760488618</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.6742612550673719</v>
+        <v>0.9332585379729245</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.5068276371723788</v>
+        <v>0.9484484692083193</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.5737779075488904</v>
+        <v>0.6096500339622035</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.041779666184607</v>
+        <v>1.04481333031585</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.053709607704907</v>
+        <v>1.052306857441765</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.084761452574823</v>
+        <v>1.023274010918494</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.140880085016503</v>
+        <v>1.016988371113828</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.044231331707026</v>
+        <v>1.047372028575616</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.058691005564509</v>
+        <v>1.059775370177832</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.091845153836639</v>
+        <v>1.021931792639612</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.152138710295867</v>
+        <v>1.022134961115415</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.053709607704907</v>
+        <v>1.052306857441765</v>
       </c>
     </row>
     <row r="4">
@@ -6838,62 +6838,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.8739437700344924</v>
+        <v>0.8973980171574997</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.8987895526146384</v>
+        <v>0.953853765630553</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.9562464251805889</v>
+        <v>0.9588484153477608</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.9329375572087395</v>
+        <v>0.9738727042071915</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.7447691890958595</v>
+        <v>0.8271658086463004</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.7257397460529416</v>
+        <v>0.9480047576712196</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.73618888376512</v>
+        <v>0.9537265707068939</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.5839357402340862</v>
+        <v>0.9694423391942207</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.707162585394653</v>
+        <v>0.6901633686067012</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.033965334860385</v>
+        <v>1.032440771053178</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.015102753468986</v>
+        <v>1.007357396705676</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.007342562716462</v>
+        <v>1.007531711466892</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.010529046620042</v>
+        <v>1.005247875722757</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.051074513118093</v>
+        <v>1.034278907879761</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.045568774353153</v>
+        <v>1.008261791438764</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.06835589811822</v>
+        <v>1.008337917057734</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.12946071982686</v>
+        <v>1.00576546337055</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.015102753468986</v>
+        <v>1.007357396705676</v>
       </c>
     </row>
     <row r="5">
@@ -6902,62 +6902,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.9036275628328613</v>
+        <v>0.9265103007756822</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.9123637496482776</v>
+        <v>0.9608716461835</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.9632677245298695</v>
+        <v>0.9660701849526465</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9427605002421787</v>
+        <v>0.9789834671286565</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.7828079128142877</v>
+        <v>0.8555201492021752</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.7588108167799429</v>
+        <v>0.9558369752620549</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.7865117360995347</v>
+        <v>0.9616786637492051</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.6595324814974211</v>
+        <v>0.9750316234907053</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.7403569036586483</v>
+        <v>0.8380498712327908</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.0174304269912</v>
+        <v>1.015429838925163</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.013178521370014</v>
+        <v>1.010435798760193</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.007256621150057</v>
+        <v>1.012367409443667</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.01607511875224</v>
+        <v>1.011089877741772</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.092010781724991</v>
+        <v>1.025709682966342</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.120957794047219</v>
+        <v>1.012006178707779</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.221211264897017</v>
+        <v>1.014674319451337</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.439391316564718</v>
+        <v>1.014112956436149</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.013178521370014</v>
+        <v>1.010435798760193</v>
       </c>
     </row>
     <row r="6">
@@ -6966,62 +6966,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.9193781770940554</v>
+        <v>0.9408062054791557</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9243873548202437</v>
+        <v>0.9708991093174461</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.97025779347286</v>
+        <v>0.9780179704812748</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.957915487238493</v>
+        <v>0.9898402740903294</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.8548346808128391</v>
+        <v>0.8775153010094807</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8505948992768134</v>
+        <v>0.967312924802554</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.960496992098462</v>
+        <v>0.9757906436705958</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9493253268597683</v>
+        <v>0.9887922023168976</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.7487255874670744</v>
+        <v>0.8380498712327908</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.020574005472118</v>
+        <v>1.008832749091714</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.009188498535115</v>
+        <v>1.005950754444468</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.009538134293485</v>
+        <v>1.000410794605842</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.026679864768428</v>
+        <v>1</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.031888139452458</v>
+        <v>1.016744901755787</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.013733409363253</v>
+        <v>1.006713305662457</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.018142953572201</v>
+        <v>1.000503704683</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.035099812723374</v>
+        <v>1</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.009188498535115</v>
+        <v>1.005950754444468</v>
       </c>
     </row>
     <row r="7">
@@ -7030,62 +7030,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9382934687405347</v>
+        <v>0.9491161106360807</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9328810866758883</v>
+        <v>0.976676691507347</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9795122426063045</v>
+        <v>0.9784197349879653</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9834725428975987</v>
+        <v>0.9898402740903294</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8820937683233963</v>
+        <v>0.8922092085140845</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8622764672308767</v>
+        <v>0.973806792137999</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9779232444323431</v>
+        <v>0.9762821539874404</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.982646468046102</v>
+        <v>0.9887922023168976</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.7544147809190932</v>
+        <v>0.8512369815921914</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.004719459932241</v>
+        <v>1.003351656783871</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.004815227209949</v>
+        <v>1.000167404294151</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.00022796844552</v>
+        <v>1.000099912333578</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.000418351081761</v>
+        <v>1.000091618232637</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.012277894395732</v>
+        <v>1.010998156289973</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.016327578652164</v>
+        <v>1.000190307657245</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.000275011619241</v>
+        <v>1.000108847382563</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.000550023238482</v>
+        <v>1.000092542060506</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.004815227209949</v>
+        <v>1.000167404294151</v>
       </c>
     </row>
     <row r="8">
@@ -7094,62 +7094,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9427217071709392</v>
+        <v>0.9522972220869754</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9373731210680966</v>
+        <v>0.976840191379503</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9797355404896188</v>
+        <v>0.9785174911869066</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9838839796998027</v>
+        <v>0.9899309615068346</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.8929240224580046</v>
+        <v>0.9020218648326758</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8763553540694989</v>
+        <v>0.9739921150272202</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9781921846872877</v>
+        <v>0.9763884197445448</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9831869464387395</v>
+        <v>0.9888837071847124</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.004265220198474</v>
+        <v>1.005685493127114</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.002628040388275</v>
+        <v>1.006206519718504</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.000032760660877</v>
+        <v>1.011013520813514</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.000060097851488</v>
+        <v>1.008577523215934</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.004405543793272</v>
+        <v>1.006324616328347</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.003128517151676</v>
+        <v>1.007011832063645</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.000020264298751</v>
+        <v>1.011517996249384</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.000040528597501</v>
+        <v>1.009379780413783</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.002628040388275</v>
+        <v>1.006206519718504</v>
       </c>
     </row>
     <row r="9">
@@ -7158,62 +7158,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9467426228379043</v>
+        <v>0.9577115013981208</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9398365754891466</v>
+        <v>0.9829029692891266</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9797676372734103</v>
+        <v>0.989294413942481</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9839431090130961</v>
+        <v>0.9984221173113315</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.8968578383430077</v>
+        <v>0.9077268070475222</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.8790970468256686</v>
+        <v>0.9808215841691057</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.978212007065954</v>
+        <v>0.9876344579011048</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9832267936267602</v>
+        <v>0.9981592192128728</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.000634795131975</v>
+        <v>1.00296670484281</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.000216091737298</v>
+        <v>1.003817857032836</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.00039736915621</v>
+        <v>1.006657627249279</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.00070215641342</v>
+        <v>1</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.000721651001709</v>
+        <v>1.002995623321609</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.000217458074291</v>
+        <v>1.003994164428812</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.000422691389641</v>
+        <v>1.007565739634754</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.000845382779282</v>
+        <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.000216091737298</v>
+        <v>1.003817857032836</v>
       </c>
     </row>
     <row r="10">
@@ -7222,62 +7222,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9473436104461154</v>
+        <v>0.9605527487473334</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9400396664075202</v>
+        <v>0.9866555523030226</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9801569667127159</v>
+        <v>0.9958807673903042</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9846339909775303</v>
+        <v>0.9984221173113315</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.897505056700438</v>
+        <v>0.910446014640363</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.8792882135765862</v>
+        <v>0.9847391468516047</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9786254888585845</v>
+        <v>0.9951066430638957</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9840579966262213</v>
+        <v>0.9981592192128728</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.8709883798930732</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.033992807467516</v>
+        <v>1.033109311649977</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.04147274847242</v>
+        <v>1.005364157079237</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.002939582024781</v>
+        <v>1.001863546006857</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1</v>
+        <v>1.001207523159087</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.088149445772653</v>
+        <v>1.088808180884603</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.109915876036526</v>
+        <v>1.006008906253929</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.003093082104895</v>
+        <v>1.002246434253801</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1</v>
+        <v>1.001418698100477</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.04147274847242</v>
+        <v>1.005364157079237</v>
       </c>
     </row>
     <row r="11">
@@ -7286,62 +7286,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9795464794015919</v>
+        <v>0.9923559890618514</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9790256950465371</v>
+        <v>0.9919481276686775</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9830382185135281</v>
+        <v>0.9977366370176804</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9846339909775303</v>
+        <v>0.9996277351405294</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9766196300267352</v>
+        <v>0.9913010689942101</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9759359478604485</v>
+        <v>0.9906563520696104</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.981652457845567</v>
+        <v>0.9973420847130597</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9840579966262213</v>
+        <v>0.9995753058011435</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.8713318815165255</v>
+        <v>0.8736031882900518</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.003690546598397</v>
+        <v>1.00325704701787</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.004121366278698</v>
+        <v>1.00354560774471</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.007570871250239</v>
+        <v>1.000209354325007</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.000829044410251</v>
+        <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.004235683997804</v>
+        <v>1.003844827352439</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.004815212074214</v>
+        <v>1.004324866393147</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.008399435636228</v>
+        <v>1.000250595379119</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.000892081589425</v>
+        <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.004121366278698</v>
+        <v>1.00354560774471</v>
       </c>
     </row>
     <row r="12">
@@ -7350,62 +7350,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9831615413291191</v>
+        <v>0.9955881391766908</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9830606185320808</v>
+        <v>0.9954651866324902</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9904806742999587</v>
+        <v>0.9979455174978584</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9854502962838934</v>
+        <v>0.9996277351405294</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9807562821655808</v>
+        <v>0.9951124504587815</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9806352864202452</v>
+        <v>0.9949408084338341</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9898977844823854</v>
+        <v>0.9975920140308898</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9849358566479384</v>
+        <v>0.9995753058011435</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.8718680485110205</v>
+        <v>0.8753167689959469</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.00134070335177</v>
+        <v>1.001834668144026</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.001443502815674</v>
+        <v>1.001958407399774</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.002226135633749</v>
+        <v>1.001235929285318</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.004756001143861</v>
+        <v>1</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.001482816229052</v>
+        <v>1.002135743149194</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.00160638424814</v>
+        <v>1.00230862640694</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.00249283400871</v>
+        <v>1.001507739779928</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.00498566801742</v>
+        <v>1</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.001443502815674</v>
+        <v>1.001958407399774</v>
       </c>
     </row>
     <row r="13">
@@ -7414,62 +7414,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9844796693029103</v>
+        <v>0.9974147130202083</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9844796693029103</v>
+        <v>0.9974147130202083</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>0.9991789075880863</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9901370990202381</v>
+        <v>0.9996277351405294</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9822105634975206</v>
+        <v>0.9972377550575264</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9822105634975206</v>
+        <v>0.9972377550575264</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>0.9990961231945823</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9898464198476382</v>
+        <v>0.9995753058011435</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.8776675796928644</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.00585684366829</v>
+        <v>1.001207873598419</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.00585684366829</v>
+        <v>1.001207873598419</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1</v>
+        <v>1.00039571461224</v>
       </c>
       <c r="Q13" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.007412080312347</v>
+        <v>1.000956496981619</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.007412080312347</v>
+        <v>1.000956496981619</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1</v>
+        <v>1.000425305714143</v>
       </c>
       <c r="U13" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.00585684366829</v>
+        <v>1.001207873598419</v>
       </c>
     </row>
     <row r="14">
@@ -7478,62 +7478,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.990245612820627</v>
+        <v>0.9986194639187402</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.990245612820627</v>
+        <v>0.9986194639187402</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>0.9995742972820603</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9901370990202381</v>
+        <v>0.9996277351405294</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9894907870777994</v>
+        <v>0.9981916099601956</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9894907870777994</v>
+        <v>0.9981916099601956</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>0.999521044484755</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9898464198476382</v>
+        <v>0.9995753058011435</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.002175657617473</v>
+        <v>1.001312198504915</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.002175657617473</v>
+        <v>1.001312198504915</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1</v>
+        <v>1.00031862088287</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1</v>
+        <v>1.000165616986208</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.002575380869254</v>
+        <v>1.001744633101139</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.002575380869254</v>
+        <v>1.001744633101139</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1</v>
+        <v>1.000378772414489</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1</v>
+        <v>1.0002240804768</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.002175657617473</v>
+        <v>1.001312198504915</v>
       </c>
     </row>
     <row r="15">
@@ -7542,41 +7542,41 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9924000482313294</v>
+        <v>0.9999298508862737</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9924000482313294</v>
+        <v>0.9999298508862737</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>0.9998927825271545</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9901370990202381</v>
+        <v>0.9997932904733533</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9920391027211429</v>
+        <v>0.9999330880842109</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9920391027211429</v>
+        <v>0.9999330880842109</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>0.9998996354841074</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9898464198476382</v>
+        <v>0.9997992911122652</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000287757334088</v>
+        <v>1</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000287757334088</v>
+        <v>1</v>
       </c>
       <c r="P15" s="22" t="n">
         <v>1</v>
@@ -7585,10 +7585,10 @@
         <v>1</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.000328951371626</v>
+        <v>1</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.000328951371626</v>
+        <v>1</v>
       </c>
       <c r="T15" s="22" t="n">
         <v>1</v>
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.000287757334088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -7606,62 +7606,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>0.9999298508862737</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>0.9999298508862737</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>0.9998927825271545</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9901370990202381</v>
+        <v>0.9997932904733533</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>0.9999330880842109</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>0.9999330880842109</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>0.9998996354841074</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9898464198476382</v>
+        <v>0.9997992911122652</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.8779149036377517</v>
+        <v>0.8833384737318346</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1</v>
+        <v>1.00007015403497</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1</v>
+        <v>1.00007015403497</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1</v>
+        <v>1.000107228969665</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1</v>
+        <v>1.000206752264309</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1</v>
+        <v>1.000066916393293</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1</v>
+        <v>1.000066916393293</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1</v>
+        <v>1.00010037458994</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1</v>
+        <v>1.000200749179879</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1</v>
+        <v>1.00007015403497</v>
       </c>
     </row>
     <row r="17">
@@ -7670,28 +7670,28 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9901370990202381</v>
+        <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9898464198476382</v>
+        <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
         <v>1</v>
@@ -7734,28 +7734,28 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9901370990202381</v>
+        <v>1</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9898464198476382</v>
+        <v>1</v>
       </c>
       <c r="J18" s="34" t="n">
         <v>1</v>
@@ -7798,28 +7798,28 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9901370990202381</v>
+        <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9898464198476382</v>
+        <v>1</v>
       </c>
       <c r="J19" s="34" t="n">
         <v>1</v>
@@ -7862,28 +7862,28 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.9901370990202381</v>
+        <v>1</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.9898464198476382</v>
+        <v>1</v>
       </c>
       <c r="J20" s="34" t="n">
         <v>1</v>
@@ -7926,28 +7926,28 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>0.9926856186235575</v>
+        <v>1</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>0.9901370990202381</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>0.9923654353446898</v>
+        <v>1</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>0.9898464198476382</v>
+        <v>1</v>
       </c>
       <c r="J21" s="34" t="n">
         <v>1</v>
@@ -7957,31 +7957,31 @@
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1.007368275755404</v>
+        <v>1</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1.007368275755404</v>
+        <v>1</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1.007368275755404</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1.009961146784139</v>
+        <v>1</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1.007693299648892</v>
+        <v>1</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1.007693299648892</v>
+        <v>1</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1.007693299648892</v>
+        <v>1</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1.01025773286519</v>
+        <v>1</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1.007368275755404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>37093.25999999999</v>
+        <v>35353.57</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>85490.59416666668</v>
+        <v>84301.66999999998</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>30719.97</v>
+        <v>3123.05</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>33686.17</v>
+        <v>32787.63</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>34486.17</v>
+        <v>33493.73</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>35030.31</v>
+        <v>33576.73</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>35267.8</v>
+        <v>34014.23</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>36867.8</v>
+        <v>34744.23</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>36867.8</v>
+        <v>34792.95</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>37025.8</v>
+        <v>35071.45</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>37025.8</v>
+        <v>35071.45</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>37025.8</v>
+        <v>35258.39</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>37025.8</v>
+        <v>35326.41</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>37025.8</v>
+        <v>35328.57</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>37025.8</v>
+        <v>35328.57</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>37025.8</v>
+        <v>35353.57</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>37093.25999999999</v>
+        <v>35353.57</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>37093.25999999999</v>
+        <v>35353.57</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>37093.25999999999</v>
+        <v>35353.57</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>37093.25999999999</v>
+        <v>35353.57</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>37093.25999999999</v>
+        <v>35353.57</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>37093.25999999999</v>
+        <v>35353.57</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>37093.25999999999</v>
+        <v>35353.57</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>37093.25999999999</v>
+        <v>35353.57</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>37093.25999999999</v>
+        <v>35353.57</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>37093.25999999999</v>
+        <v>35353.57</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>35170.6</v>
+        <v>31343.85</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>62790.19583333335</v>
+        <v>70809.73666666668</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8739,73 +8739,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>29901.88</v>
+        <v>3519.95</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>31424.66</v>
+        <v>7282.26</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>31449.66</v>
+        <v>7526.67</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>31751.16</v>
+        <v>7799.43</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>33251.16</v>
+        <v>9613.810000000001</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>33492.16</v>
+        <v>11387.41</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>33492.16</v>
+        <v>13591.43</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>33994.03</v>
+        <v>13632.26</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>33994.03</v>
+        <v>13632.26</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>33994.03</v>
+        <v>30736.46</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>34045.6</v>
+        <v>30736.46</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>34045.6</v>
+        <v>30843.85</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>34045.6</v>
+        <v>30843.85</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>34070.6</v>
+        <v>31343.85</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>34120.6</v>
+        <v>31343.85</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>34120.6</v>
+        <v>31343.85</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>34120.6</v>
+        <v>31343.85</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>34120.6</v>
+        <v>31343.85</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>34120.6</v>
+        <v>31343.85</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>34120.6</v>
+        <v>31343.85</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>35170.6</v>
+        <v>31343.85</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>35170.6</v>
+        <v>31343.85</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>35170.6</v>
+        <v>31343.85</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>36203.48</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>79660.32249999999</v>
+        <v>77134.02333333333</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8866,70 +8866,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>31915.25</v>
+        <v>34356.58</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>33603.75</v>
+        <v>35240.58</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>34203.75</v>
+        <v>38258.08000000001</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>34400.25</v>
+        <v>55185.79000000001</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>35048.75</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>35048.75</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>35376.45</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>35626.45</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>35802.45</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>35918.85</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>36114.85</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>36114.85</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>36203.48</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>36203.48</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>36203.48</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>36203.48</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>36203.48</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>36203.48</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>36203.48</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>36203.48</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>36203.48</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>36203.48</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>35085.47</v>
+        <v>39179.79</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>70225.40647500001</v>
+        <v>66581.40916666668</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8993,67 +8993,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>11644</v>
+        <v>31374.58</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>24013.29</v>
+        <v>36230.79</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>25180.16</v>
+        <v>37226.79</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>25447.16</v>
+        <v>37332.79</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>26815.66</v>
+        <v>37654.79</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>31053.26</v>
+        <v>37654.79</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>31275.26</v>
+        <v>37654.79</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>31275.26</v>
+        <v>37679.79</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>31400.26</v>
+        <v>37679.79</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>31412.79</v>
+        <v>39179.79</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>31412.79</v>
+        <v>39179.79</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>31425.29</v>
+        <v>39179.79</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>34143.29</v>
+        <v>39179.79</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>35085.47</v>
+        <v>39179.79</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>35085.47</v>
+        <v>39179.79</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>35085.47</v>
+        <v>39179.79</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>35085.47</v>
+        <v>39179.79</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>35085.47</v>
+        <v>39179.79</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>35085.47</v>
+        <v>39179.79</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>35085.47</v>
+        <v>39179.79</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>35085.47</v>
+        <v>39179.79</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>68211.84999999999</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>77778.23916666667</v>
+        <v>76067.61500000001</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9120,64 +9120,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>33329.63</v>
+        <v>32418.68</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>64137.87000000001</v>
+        <v>33618.08</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>65254.99000000001</v>
+        <v>33841.08</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>65254.99000000001</v>
+        <v>34121.08</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>65344.99000000001</v>
+        <v>34121.08</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>66944.99000000001</v>
+        <v>34151.42999999999</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>67424.99000000001</v>
+        <v>34176.42999999999</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>68167.67</v>
+        <v>34576.42999999999</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>68172.67</v>
+        <v>34576.42999999999</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>68186.84999999999</v>
+        <v>34576.42999999999</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>68186.84999999999</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>68211.84999999999</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>68211.84999999999</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>68211.84999999999</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>68211.84999999999</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>68211.84999999999</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>68211.84999999999</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>68211.84999999999</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>68211.84999999999</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>68211.84999999999</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>35328.57</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>84301.66999999998</v>
+        <v>72901.14583333334</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9247,61 +9247,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>3123.05</v>
+        <v>31751.08</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>32787.63</v>
+        <v>33209.18</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>33493.73</v>
+        <v>33535.18</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>33576.73</v>
+        <v>33789.06</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>34014.23</v>
+        <v>34984.06</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>34744.23</v>
+        <v>35102.07000000001</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>34792.95</v>
+        <v>35102.07000000001</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>35071.45</v>
+        <v>35602.07000000001</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>35071.45</v>
+        <v>35602.07000000001</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>35258.39</v>
+        <v>36272.07000000001</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>35326.41</v>
+        <v>36272.07000000001</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>35328.57</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>35328.57</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>35328.57</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>35328.57</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>35328.57</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>35328.57</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>35328.57</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>35328.57</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>30843.85</v>
+        <v>37550.79</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9351,7 +9351,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>70809.73666666668</v>
+        <v>66947.35000000001</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9374,58 +9374,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>3519.95</v>
+        <v>30423.08</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>7282.26</v>
+        <v>32367.88</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>7526.67</v>
+        <v>32681.14</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>7799.43</v>
+        <v>34136.07</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>9613.810000000001</v>
+        <v>36369.82</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>11387.41</v>
+        <v>37365.79</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>13591.43</v>
+        <v>37365.79</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>13632.26</v>
+        <v>37390.79</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>13632.26</v>
+        <v>37390.79</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>30736.46</v>
+        <v>37390.79</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>30736.46</v>
+        <v>37490.79</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>30843.85</v>
+        <v>37490.79</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>30843.85</v>
+        <v>37490.79</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>30843.85</v>
+        <v>37550.79</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>30843.85</v>
+        <v>37550.79</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>30843.85</v>
+        <v>37550.79</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>30843.85</v>
+        <v>37550.79</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>30843.85</v>
+        <v>37550.79</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>56015.32000000001</v>
+        <v>41536.17000000001</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>77134.02333333333</v>
+        <v>74898.13833333334</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9501,55 +9501,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>34356.58</v>
+        <v>34519.58</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>35240.58</v>
+        <v>39689.26</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>38258.08000000001</v>
+        <v>39976.76</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>55185.79000000001</v>
+        <v>40421.51000000001</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>40421.51000000001</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>41511.17000000001</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>41511.17000000001</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>41511.17000000001</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>41536.17000000001</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>41536.17000000001</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>39179.79</v>
+        <v>41855.7</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>66581.40916666666</v>
+        <v>76192.5475</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9628,52 +9628,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>31374.58</v>
+        <v>32411.4</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>36230.79</v>
+        <v>35754.7</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>37226.79</v>
+        <v>39109.7</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>37332.79</v>
+        <v>41659.7</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>37654.79</v>
+        <v>41659.7</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>37654.79</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>37654.79</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>37679.79</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>37679.79</v>
+        <v>41849.50000000001</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>39179.79</v>
+        <v>41849.50000000001</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>39179.79</v>
+        <v>41849.50000000001</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>39179.79</v>
+        <v>41855.7</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>39179.79</v>
+        <v>41855.7</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>39179.79</v>
+        <v>41855.7</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>39179.79</v>
+        <v>41855.7</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>39179.79</v>
+        <v>41855.7</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>36226.42999999999</v>
+        <v>37214.02</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>76067.61500000001</v>
+        <v>61517.36916666667</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9755,49 +9755,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>32418.68</v>
+        <v>31718</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>33618.08</v>
+        <v>35250.6</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>33841.08</v>
+        <v>36289.10000000001</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>34121.08</v>
+        <v>36289.10000000001</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>34121.08</v>
+        <v>36779.10000000001</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>34151.42999999999</v>
+        <v>36779.10000000001</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>34176.42999999999</v>
+        <v>36779.10000000001</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>34576.42999999999</v>
+        <v>36779.10000000001</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>34576.42999999999</v>
+        <v>36784.26000000001</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>34576.42999999999</v>
+        <v>36805.68000000001</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>36861.02</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>37189.02</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>37189.02</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>37214.02</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>37214.02</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>37322.07000000001</v>
+        <v>71905.97999999997</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>72901.14583333333</v>
+        <v>72644.10897499998</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9882,46 +9882,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>31751.08</v>
+        <v>35575.68</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>33209.18</v>
+        <v>68789.92</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>33535.18</v>
+        <v>71289.92000000001</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>33789.06</v>
+        <v>71289.92</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>35484.06</v>
+        <v>71771.03999999999</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>35602.07000000001</v>
+        <v>71871.03999999999</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>35602.07000000001</v>
+        <v>71871.03999999998</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>36102.07000000001</v>
+        <v>71879.71999999997</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>36102.07000000001</v>
+        <v>71879.71999999997</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>36772.07000000001</v>
+        <v>71905.97999999997</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>36772.07000000001</v>
+        <v>71905.97999999997</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>37322.07000000001</v>
+        <v>71905.97999999997</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>37322.07000000001</v>
+        <v>71905.97999999997</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>37322.07000000001</v>
+        <v>71905.97999999997</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>37465.79</v>
+        <v>37163.61000000001</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9986,7 +9986,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>66947.35000000001</v>
+        <v>68774.0675</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10012,43 +10012,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>30423.08</v>
+        <v>2105</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>32367.88</v>
+        <v>35591.77</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>32681.14</v>
+        <v>35791.77</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>34136.07</v>
+        <v>36796.10000000001</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>36369.82</v>
+        <v>36796.10000000001</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>37365.79</v>
+        <v>36796.10000000001</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>37365.79</v>
+        <v>36856.10000000001</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>37365.79</v>
+        <v>36856.10000000001</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>37365.79</v>
+        <v>36858.61000000001</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>37365.79</v>
+        <v>37163.61000000001</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>37465.79</v>
+        <v>37163.61000000001</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>37465.79</v>
+        <v>37163.61000000001</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>37465.79</v>
+        <v>37163.61000000001</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>41405.51000000001</v>
+        <v>41218.2</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>74898.13833333334</v>
+        <v>63530.44749999999</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10148,40 +10148,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>34519.58</v>
+        <v>33501.69</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>39689.26</v>
+        <v>33695.69</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>39976.76</v>
+        <v>36563.44</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>40421.51000000001</v>
+        <v>36663.44</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>40421.51000000001</v>
+        <v>36760.94</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>38585.94</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>38585.94</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>39430.94</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41218.2</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41218.2</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41218.2</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41218.2</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>41849.50000000001</v>
+        <v>35393.58</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>76192.5475</v>
+        <v>76526.11916666667</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10284,37 +10284,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>32411.4</v>
+        <v>31576.8</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>35754.7</v>
+        <v>32524.6</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>39109.7</v>
+        <v>33137.1</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>41659.7</v>
+        <v>33366.1</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>41659.7</v>
+        <v>34471.1</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>41749.50000000001</v>
+        <v>34571.1</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>41749.50000000001</v>
+        <v>34584.08</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>41749.50000000001</v>
+        <v>35243.58</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>41849.50000000001</v>
+        <v>35243.58</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>41849.50000000001</v>
+        <v>35393.58</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>41849.50000000001</v>
+        <v>35393.58</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>36624.26000000001</v>
+        <v>47759.44</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>61517.36916666667</v>
+        <v>62919.23583333332</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10420,34 +10420,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>31718</v>
+        <v>32064</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>35250.6</v>
+        <v>32884.5</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>36289.10000000001</v>
+        <v>47116.15</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>36289.10000000001</v>
+        <v>47653.65</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>36619.10000000001</v>
+        <v>47753.65</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>36619.10000000001</v>
+        <v>47759.44</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>36619.10000000001</v>
+        <v>47759.44</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>36619.10000000001</v>
+        <v>47759.44</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>36624.26000000001</v>
+        <v>47759.44</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>36624.26000000001</v>
+        <v>47759.44</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>71398.59999999998</v>
+        <v>37660.23000000001</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>72644.10897499998</v>
+        <v>61890.5225</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10556,31 +10556,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>35575.68</v>
+        <v>32039.6</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>68789.92</v>
+        <v>35532.5</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>71289.92000000001</v>
+        <v>35782.50000000001</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>71289.92</v>
+        <v>35882.50000000001</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>71289.92</v>
+        <v>36629.50000000001</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>71389.92</v>
+        <v>36629.50000000001</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>71389.91999999998</v>
+        <v>36629.50000000001</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>71398.59999999998</v>
+        <v>37660.23000000001</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>71398.59999999998</v>
+        <v>37660.23000000001</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>36422.10000000001</v>
+        <v>35777.45</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10662,7 +10662,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>68774.0675</v>
+        <v>69032.43833333334</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10694,28 +10694,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>2105</v>
+        <v>33349</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>35591.77</v>
+        <v>34773.27</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>35691.77</v>
+        <v>34773.27</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>36362.10000000001</v>
+        <v>34970.52</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>36362.10000000001</v>
+        <v>35767.52</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>36362.10000000001</v>
+        <v>35767.52</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>36422.10000000001</v>
+        <v>35777.45</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>36422.10000000001</v>
+        <v>35777.45</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>35668.19</v>
+        <v>35987.52</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>63530.44749999999</v>
+        <v>56166.315</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10832,25 +10832,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>33501.69</v>
+        <v>32099</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>33645.69</v>
+        <v>33689.5</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>33645.69</v>
+        <v>33791.64</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>33745.69</v>
+        <v>34611.56</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>33843.19</v>
+        <v>35987.52</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>35668.19</v>
+        <v>35987.52</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>35668.19</v>
+        <v>35987.52</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>2046.5</v>
+        <v>66916</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>76526.11916666667</v>
+        <v>66947.215</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10970,22 +10970,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v/>
+        <v>62255</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v/>
+        <v>62602.5</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>612.5</v>
+        <v>66493.5</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>841.5</v>
+        <v>66743.5</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>1946.5</v>
+        <v>66916</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>2046.5</v>
+        <v>66916</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>46538.65</v>
+        <v>38273.17</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>62919.23583333332</v>
+        <v>63311.52583333333</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11108,19 +11108,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>30849</v>
+        <v>3967</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>31669.5</v>
+        <v>37562</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>45901.15</v>
+        <v>37762</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>46438.65</v>
+        <v>38273.17</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>46538.65</v>
+        <v>38273.17</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>35882.50000000001</v>
+        <v>40787.95</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>61890.5225</v>
+        <v>67340.0125</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11246,16 +11246,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>32039.6</v>
+        <v>36360.9</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>35532.5</v>
+        <v>38440.02</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>35782.50000000001</v>
+        <v>40787.95</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>35882.50000000001</v>
+        <v>40787.95</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>35592.16</v>
+        <v>73978.81</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11352,7 +11352,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>69032.43833333334</v>
+        <v>64380.91</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>0</v>
@@ -11383,13 +11383,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>33349</v>
+        <v>36251.4</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>35592.16</v>
+        <v>73978.81</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>35592.16</v>
+        <v>73978.81</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11463,7 +11463,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>33689.5</v>
+        <v>3972.75</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11490,7 +11490,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>56166.315</v>
+        <v>61136.61147500001</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>105</v>
@@ -11521,10 +11521,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>32099</v>
+        <v>3972.75</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>33689.5</v>
+        <v>3972.75</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11601,7 +11601,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>31481</v>
+        <v/>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11628,7 +11628,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>66947.215</v>
+        <v/>
       </c>
       <c r="J31" s="20" t="n">
         <v>110</v>
@@ -11659,7 +11659,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>31481</v>
+        <v/>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_NMS_PLICA.xlsx
+++ b/Process Results/Unified_IBNP_NMS_PLICA.xlsx
@@ -3734,20 +3734,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6300987863618009</v>
+        <v>0.6272007914311981</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6549323268519874</v>
+        <v>0.6515178591541999</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.6760598097730434</v>
+        <v>0.7406414189397433</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.1620464460718041</v>
+        <v>0.2278814025977461</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3772,20 +3772,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9576045625188265</v>
+        <v>0.9479208695976447</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9370397421577196</v>
+        <v>0.9256265940643233</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9064407010987665</v>
+        <v>0.9076209880575737</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6096500339622035</v>
+        <v>0.8573338582909146</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3810,20 +3810,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9738727042071915</v>
+        <v>0.9678540053914569</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9588484153477608</v>
+        <v>0.9495387639715552</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.953853765630553</v>
+        <v>0.9548093113035568</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6901633686067012</v>
+        <v>0.900948144889942</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3848,20 +3848,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9789834671286565</v>
+        <v>0.9721517928165064</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9660701849526465</v>
+        <v>0.9559522899801455</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.9608716461835</v>
+        <v>0.961636174394001</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.8380498712327908</v>
+        <v>0.9354560452554698</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3886,20 +3886,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9898402740903294</v>
+        <v>0.9763873821280683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9780179704812748</v>
+        <v>0.969471773438086</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9708991093174461</v>
+        <v>0.9725533354324718</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8380498712327908</v>
+        <v>0.9354560452554698</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3924,20 +3924,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9898402740903294</v>
+        <v>0.9778763639950064</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9784197349879653</v>
+        <v>0.9702931128256829</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.976676691507347</v>
+        <v>0.9769232053766814</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8512369815921914</v>
+        <v>0.9580381273351128</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3962,20 +3962,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9899309615068346</v>
+        <v>0.9845822365181718</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9785174911869066</v>
+        <v>0.9739260051355476</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.976840191379503</v>
+        <v>0.9788311700206377</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -4000,20 +4000,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9984221173113315</v>
+        <v>0.9938639867683058</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.989294413942481</v>
+        <v>0.9846489160956897</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9829029692891266</v>
+        <v>0.9838977875221286</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4038,20 +4038,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9984221173113315</v>
+        <v>0.9979473372484499</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9958807673903042</v>
+        <v>0.9943159460493669</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9866555523030226</v>
+        <v>0.988629119707878</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4076,20 +4076,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9996277351405294</v>
+        <v>0.9991827951994974</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9977366370176804</v>
+        <v>0.9960809389694546</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9919481276686775</v>
+        <v>0.9909537231104019</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9889805921347967</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4114,20 +4114,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9996277351405294</v>
+        <v>0.9991827951994974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9979455174978584</v>
+        <v>0.9962845357701465</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9954651866324902</v>
+        <v>0.9945216029817867</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8753167689959469</v>
+        <v>0.9909326750011443</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4152,20 +4152,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9996277351405294</v>
+        <v>0.9996218984164583</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9991789075880863</v>
+        <v>0.9977322825926486</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9974147130202083</v>
+        <v>0.9963398322837024</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4190,20 +4190,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9996277351405294</v>
+        <v>0.9996218984164583</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9995742972820603</v>
+        <v>0.9981215922562695</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9986194639187402</v>
+        <v>0.9975291962964521</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4228,20 +4228,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9997932904733533</v>
+        <v>0.9997927638954918</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9998927825271545</v>
+        <v>0.9985492898931438</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9999298508862737</v>
+        <v>0.9988425386816873</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4266,20 +4266,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9997932904733533</v>
+        <v>0.9997927638954918</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9998927825271545</v>
+        <v>0.9985492898931438</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9999298508862737</v>
+        <v>0.9988425386816873</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4307,10 +4307,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1</v>
+        <v>0.9991649786973268</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1</v>
+        <v>0.9992400140446459</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
@@ -4345,10 +4345,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1</v>
+        <v>0.9992773065107019</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1</v>
+        <v>0.9993216203058152</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
@@ -4383,10 +4383,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1</v>
+        <v>0.9996723439426254</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1</v>
+        <v>0.9996723439426254</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
@@ -4421,10 +4421,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1</v>
+        <v>0.9997622337406101</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>1</v>
+        <v>0.9997622337406101</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
@@ -4840,73 +4840,73 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>10.49859272185844</v>
+        <v>2.068853250756403</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.021535560819736</v>
+        <v>1.033562383106343</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.002478075747312</v>
+        <v>1.036239133640773</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.01302985728509</v>
+        <v>1.23262982038431</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.021461605921992</v>
+        <v>1.18448461119993</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.001402247222057</v>
+        <v>1.193548840342097</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.008004495163532</v>
+        <v>1.003004098906443</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.005330261509005</v>
+        <v>2.254685576712885</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.001929186216387</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.000061144056246</v>
+        <v>1.00349389617412</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1.000707642568041</v>
+        <v>1.01621068705755</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="39" ht="15.6" customHeight="1">
@@ -4915,70 +4915,70 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>2.068853250756403</v>
+        <v>1.025730151254869</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.033562383106343</v>
+        <v>1.085625718986464</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.036239133640773</v>
+        <v>1.442461043523355</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.23262982038431</v>
+        <v>1.015031586935695</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.18448461119993</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.193548840342097</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.003004098906443</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>2.254685576712885</v>
+        <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.00349389617412</v>
+        <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.008926129494574</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1.01621068705755</v>
+        <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000842603386126</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4990,16 +4990,16 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>1.025730151254869</v>
+        <v>1.154781673571407</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.085625718986464</v>
+        <v>1.027490430101027</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.442461043523355</v>
+        <v>1.002847411769857</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.015031586935695</v>
+        <v>1.008625125526381</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>1</v>
@@ -5008,13 +5008,13 @@
         <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1</v>
+        <v>1.000663926156539</v>
       </c>
       <c r="I40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1</v>
+        <v>1.039809139063673</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>1</v>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.008926129494574</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
         <v>1</v>
@@ -5041,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v>1.000545944733241</v>
       </c>
       <c r="T40" s="4" t="n">
         <v>1</v>
@@ -5065,34 +5065,34 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>1.154781673571407</v>
+        <v>1.036997188040969</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.027490430101027</v>
+        <v>1.006633335395716</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.002847411769857</v>
+        <v>1.008273967615691</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.008625125526381</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v>1.00088947946548</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1</v>
+        <v>1.000732033768425</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.000663926156539</v>
+        <v>1.011703972591637</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.039809139063673</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1</v>
+        <v>1.047720369049089</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>1</v>
@@ -5113,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1</v>
+        <v>1.002706035344913</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>1</v>
@@ -5140,37 +5140,37 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>1.036997188040969</v>
+        <v>1.045922847348815</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.006633335395716</v>
+        <v>1.009816562769692</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.008273967615691</v>
+        <v>1.007570557247643</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1</v>
+        <v>1.03536647660515</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.00088947946548</v>
+        <v>1.003373250560398</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.000732033768425</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.011703972591637</v>
+        <v>1.014244174203971</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1</v>
+        <v>1.018819130460673</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.047720369049089</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1</v>
+        <v>1.015163182029589</v>
       </c>
       <c r="M42" s="4" t="n">
         <v>1</v>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1</v>
+        <v>1.000712344525987</v>
       </c>
       <c r="R42" s="4" t="n">
         <v>1</v>
@@ -5215,49 +5215,49 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>1.045922847348815</v>
+        <v>1.063925151562564</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.009816562769692</v>
+        <v>1.009678112993498</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.007570557247643</v>
+        <v>1.044518948849398</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.03536647660515</v>
+        <v>1.065436648096866</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.003373250560398</v>
+        <v>1.02738451826267</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.014244174203971</v>
+        <v>1.000669061192069</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.018819130460673</v>
+        <v>1</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1</v>
+        <v>1.002674455393962</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.015163182029589</v>
+        <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>1.001600393056535</v>
       </c>
       <c r="O43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v>1.003130693122568</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
@@ -5290,25 +5290,25 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>1.063925151562564</v>
+        <v>1.14976080241996</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.009678112993498</v>
+        <v>1.007243773252512</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.044518948849398</v>
+        <v>1.011125213749188</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.065436648096866</v>
+        <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.02738451826267</v>
+        <v>1.02434347455105</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.000669061192069</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>1</v>
@@ -5317,22 +5317,22 @@
         <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.002674455393962</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1</v>
+        <v>1.002551834284857</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.001600393056535</v>
+        <v>1</v>
       </c>
       <c r="O44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>1.000602247539638</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>1</v>
@@ -5365,19 +5365,19 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>1.14976080241996</v>
+        <v>1.103151977390671</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.007243773252512</v>
+        <v>1.093833817651945</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.011125213749188</v>
+        <v>1.065201216066602</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.02434347455105</v>
+        <v>1.002155560409701</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>1</v>
@@ -5386,31 +5386,31 @@
         <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1</v>
+        <v>1.002395238266327</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v>1.000148149918159</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.002551834284857</v>
+        <v>1</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v>1.000703846787893</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1.000602247539638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5440,19 +5440,19 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>1.103151977390671</v>
+        <v>1.111375244340753</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.093833817651945</v>
+        <v>1.029460491452628</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.065201216066602</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1</v>
+        <v>1.013502677112411</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.002155560409701</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>1</v>
@@ -5461,28 +5461,28 @@
         <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.002395238266327</v>
+        <v>1.000140297070891</v>
       </c>
       <c r="J46" s="4" t="n">
+        <v>1.000582314283337</v>
+      </c>
+      <c r="K46" s="4" t="n">
+        <v>1.001503572274714</v>
+      </c>
+      <c r="L46" s="4" t="n">
+        <v>1.008898288761407</v>
+      </c>
+      <c r="M46" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="K46" s="4" t="n">
+      <c r="N46" s="4" t="n">
+        <v>1.000672241430401</v>
+      </c>
+      <c r="O46" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="L46" s="4" t="n">
-        <v>1.000148149918159</v>
-      </c>
-      <c r="M46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O46" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="P46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5515,46 +5515,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>1.111375244340753</v>
+        <v>1.933622069908432</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.029460491452628</v>
+        <v>1.036342533906131</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.013502677112411</v>
+        <v>1.006748780192207</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1</v>
+        <v>1.001393319645361</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1</v>
+        <v>1.000120771871396</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.000140297070891</v>
+        <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.000582314283337</v>
+        <v>1.000365332530511</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.001503572274714</v>
+        <v>1</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.008898288761407</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1.000672241430401</v>
+        <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5590,31 +5590,31 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>1.933622069908432</v>
+        <v>16.90820427553444</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.036342533906131</v>
+        <v>1.00561927659119</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.028060361362403</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.006748780192207</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.001393319645361</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.001630607591565</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.000120771871396</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1</v>
+        <v>1.000068102702131</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.000365332530511</v>
+        <v>1.008274864407529</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>1</v>
@@ -5665,37 +5665,37 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>16.90820427553444</v>
+        <v>1.005790752645613</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.00561927659119</v>
+        <v>1.085107323815004</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.028060361362403</v>
+        <v>1.002734972420538</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1</v>
+        <v>1.002659324929685</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>1.049645085245372</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.001630607591565</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>1.021899168453587</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.000068102702131</v>
+        <v>1.045326335106391</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.008274864407529</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>1.001213056368303</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>1</v>
@@ -5740,31 +5740,31 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>1.005790752645613</v>
+        <v>1.030015707734793</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.085107323815004</v>
+        <v>1.018831899546805</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.002734972420538</v>
+        <v>1.006910683191951</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.002659324929685</v>
+        <v>1.033117445551023</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.049645085245372</v>
+        <v>1.002900980821616</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000375458113858</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.021899168453587</v>
+        <v>1.01906946780137</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.045326335106391</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1</v>
+        <v>1.00425609430143</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>1</v>
@@ -5815,31 +5815,31 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>1.030015707734793</v>
+        <v>1.025589446107784</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.018831899546805</v>
+        <v>1.432776840152655</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.006910683191951</v>
+        <v>1.011407977943868</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.033117445551023</v>
+        <v>1.002098475143037</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.002900980821616</v>
+        <v>1.000121247276386</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.000375458113858</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.01906946780137</v>
+        <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1</v>
+        <v>1.010469134478964</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.00425609430143</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>1</v>
@@ -5890,25 +5890,25 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>1.025589446107784</v>
+        <v>1.109018214958988</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.432776840152655</v>
+        <v>1.007035812284528</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.011407977943868</v>
+        <v>1.002794662195207</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.002098475143037</v>
+        <v>1.020817947467428</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.000121247276386</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1</v>
+        <v>1.028139341241349</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>1</v>
@@ -5965,25 +5965,25 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>1.109018214958988</v>
+        <v>1.042708027227203</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.007035812284528</v>
+        <v>1</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.002794662195207</v>
+        <v>1.005672460484735</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.020817947467428</v>
+        <v>1.022790624789108</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1</v>
+        <v>1.014256789399992</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.028139341241349</v>
+        <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>1</v>
@@ -6040,22 +6040,22 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>1.042708027227203</v>
+        <v>1.049549830212779</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1</v>
+        <v>1.003031805161846</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.005672460484735</v>
+        <v>1.024263989554813</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.022790624789108</v>
+        <v>1.039754347969291</v>
       </c>
       <c r="F54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.000277626181519</v>
+        <v>1.012295929255475</v>
       </c>
       <c r="H54" s="4" t="n">
         <v>1</v>
@@ -6115,19 +6115,19 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>1.049549830212779</v>
+        <v>1.005581880973416</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.003031805161846</v>
+        <v>1.06215406732958</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.024263989554813</v>
+        <v>1.003759765992165</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.039754347969291</v>
+        <v>1.002584521339157</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>1.003227927550959</v>
       </c>
       <c r="G55" s="4" t="n">
         <v>1</v>
@@ -6190,19 +6190,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>1.005581880973416</v>
+        <v>9.468616082682129</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.06215406732958</v>
+        <v>1.005324530110218</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.003759765992165</v>
+        <v>1.013536624119485</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.002584521339157</v>
+        <v>1.012110311218015</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6265,13 +6265,13 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>9.468616082682129</v>
+        <v>1.057180102802736</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.005324530110218</v>
+        <v>1.061080353236028</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.013536624119485</v>
+        <v>1.004167897626628</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>1</v>
@@ -6340,10 +6340,10 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>1.057180102802736</v>
+        <v>2.040715944763512</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.061080353236028</v>
+        <v>1.01175336559212</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>1</v>
@@ -6415,7 +6415,7 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>2.040715944763512</v>
+        <v>1.066870387529655</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>1</v>
@@ -6711,61 +6711,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.6509182597590836</v>
+        <v>0.6805946826782565</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.6760598097730434</v>
+        <v>0.7406414189397433</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.6549323268519874</v>
+        <v>0.6515178591541999</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.6300987863618009</v>
+        <v>0.6272007914311981</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.298090237638912</v>
+        <v>0.3523536098948256</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.2844080377626674</v>
+        <v>0.4915314151191404</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.3584482711726789</v>
+        <v>0.3539530389062684</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.6943429932330313</v>
+        <v>0.6880213043458254</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.1620464460718041</v>
+        <v>0.2278814025977461</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>1.319532058399292</v>
+        <v>1.26268817351404</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>1.340769985133509</v>
+        <v>1.225452647999174</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>1.430742847374348</v>
+        <v>1.420723286489754</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>1.519768936626665</v>
+        <v>1.51135152019595</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>2.649377536699856</v>
+        <v>2.239302652598604</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>3.14524752213695</v>
+        <v>1.825136364803217</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>2.603607306905761</v>
+        <v>2.606494066458574</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>1.36596534918875</v>
+        <v>1.369195444097723</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>1.340769985133509</v>
+        <v>1.225452647999174</v>
       </c>
     </row>
     <row r="3">
@@ -6774,62 +6774,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.8589075111495883</v>
+        <v>0.8593788567743754</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.9064407010987665</v>
+        <v>0.9076209880575737</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.9370397421577196</v>
+        <v>0.9256265940643233</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.9576045625188265</v>
+        <v>0.9479208695976447</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.7897535795100552</v>
+        <v>0.7890263732901768</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.8945336760488618</v>
+        <v>0.8971118601771292</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.9332585379729245</v>
+        <v>0.9225764957141694</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.9484484692083193</v>
+        <v>0.9420356353524768</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.6096500339622035</v>
+        <v>0.8573338582909146</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.04481333031585</v>
+        <v>1.044594233595468</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.052306857441765</v>
+        <v>1.051991220858579</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.023274010918494</v>
+        <v>1.025833494910984</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.016988371113828</v>
+        <v>1.0210282697988</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.047372028575616</v>
+        <v>1.046927383337997</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.059775370177832</v>
+        <v>1.057726272818331</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.021931792639612</v>
+        <v>1.023890686904965</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.022134961115415</v>
+        <v>1.02427790627605</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.052306857441765</v>
+        <v>1.051991220858579</v>
       </c>
     </row>
     <row r="4">
@@ -6838,62 +6838,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.8973980171574997</v>
+        <v>0.8977021982603778</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.953853765630553</v>
+        <v>0.9548093113035568</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.9588484153477608</v>
+        <v>0.9495387639715552</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.9738727042071915</v>
+        <v>0.9678540053914569</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.8271658086463004</v>
+        <v>0.8260533163733542</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.9480047576712196</v>
+        <v>0.9488987841662748</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.9537265707068939</v>
+        <v>0.9446174819191567</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.9694423391942207</v>
+        <v>0.9649062882162632</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.6901633686067012</v>
+        <v>0.900948144889942</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.032440771053178</v>
+        <v>1.030958842087427</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.007357396705676</v>
+        <v>1.007149975403071</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.007531711466892</v>
+        <v>1.006754359328907</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.005247875722757</v>
+        <v>1.004440532767451</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.034278907879761</v>
+        <v>1.0343593755883</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.008261791438764</v>
+        <v>1.008609116240983</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.008337917057734</v>
+        <v>1.008566789629637</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.00576546337055</v>
+        <v>1.005901507248704</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.007357396705676</v>
+        <v>1.007149975403071</v>
       </c>
     </row>
     <row r="5">
@@ -6902,62 +6902,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.9265103007756822</v>
+        <v>0.9254940188578566</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.9608716461835</v>
+        <v>0.961636174394001</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.9660701849526465</v>
+        <v>0.9559522899801455</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9789834671286565</v>
+        <v>0.9721517928165064</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.8555201492021752</v>
+        <v>0.854435992526587</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.9558369752620549</v>
+        <v>0.9570679641000893</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.9616786637492051</v>
+        <v>0.952709821167236</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9750316234907053</v>
+        <v>0.9706006896704918</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.8380498712327908</v>
+        <v>0.9354560452554698</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.015429838925163</v>
+        <v>1.015319691906792</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.010435798760193</v>
+        <v>1.011352693803715</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.012367409443667</v>
+        <v>1.014142424888403</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.011089877741772</v>
+        <v>1.004356921771744</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.025709682966342</v>
+        <v>1.025663705662988</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.012006178707779</v>
+        <v>1.01301537130928</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.014674319451337</v>
+        <v>1.016342958797167</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.014112956436149</v>
+        <v>1.004898277519057</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.010435798760193</v>
+        <v>1.011352693803715</v>
       </c>
     </row>
     <row r="6">
@@ -6966,62 +6966,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.9408062054791557</v>
+        <v>0.939672302088338</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9708991093174461</v>
+        <v>0.9725533354324718</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9780179704812748</v>
+        <v>0.969471773438086</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9898402740903294</v>
+        <v>0.9763873821280683</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.8775153010094807</v>
+        <v>0.8763639863466525</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.967312924802554</v>
+        <v>0.9695245590210687</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.9757906436705958</v>
+        <v>0.9682799185202282</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9887922023168976</v>
+        <v>0.9753549612086863</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.8380498712327908</v>
+        <v>0.9354560452554698</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.008832749091714</v>
+        <v>1.008110303096597</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.005950754444468</v>
+        <v>1.00449319310829</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.000410794605842</v>
+        <v>1.000847202992496</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1</v>
+        <v>1.001524990894181</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.016744901755787</v>
+        <v>1.015785234473101</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.006713305662457</v>
+        <v>1.004953676745783</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.000503704683</v>
+        <v>1.000558195804558</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1</v>
+        <v>1.00107597585032</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.005950754444468</v>
+        <v>1.00449319310829</v>
       </c>
     </row>
     <row r="7">
@@ -7030,62 +7030,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9491161106360807</v>
+        <v>0.9472933292697514</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.976676691507347</v>
+        <v>0.9769232053766814</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9784197349879653</v>
+        <v>0.9702931128256829</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9898402740903294</v>
+        <v>0.9778763639950064</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8922092085140845</v>
+        <v>0.8901975973549162</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.973806792137999</v>
+        <v>0.9743272702835567</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9762821539874404</v>
+        <v>0.9688204083083835</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9887922023168976</v>
+        <v>0.9764044195924364</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8512369815921914</v>
+        <v>0.9580381273351128</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.003351656783871</v>
+        <v>1.004417511950546</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.000167404294151</v>
+        <v>1.001953034418115</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.000099912333578</v>
+        <v>1.003744118413131</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.000091618232637</v>
+        <v>1.006857587288202</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.010998156289973</v>
+        <v>1.01237998102619</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.000190307657245</v>
+        <v>1.002379898696741</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.000108847382563</v>
+        <v>1.004488029461554</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.000092542060506</v>
+        <v>1.008850906218489</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.000167404294151</v>
+        <v>1.001953034418115</v>
       </c>
     </row>
     <row r="8">
@@ -7094,53 +7094,53 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9522972220869754</v>
+        <v>0.9514780088724734</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.976840191379503</v>
+        <v>0.9788311700206377</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9785174911869066</v>
+        <v>0.9739260051355476</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9899309615068346</v>
+        <v>0.9845822365181718</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9020218648326758</v>
+        <v>0.9012182267197295</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9739921150272202</v>
+        <v>0.9766460704843034</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9763884197445448</v>
+        <v>0.9731685028438264</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9888837071847124</v>
+        <v>0.9850464835415675</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.005685493127114</v>
+        <v>1.005253513606954</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.006206519718504</v>
+        <v>1.00517619141755</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.011013520813514</v>
+        <v>1.01100998525925</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.008577523215934</v>
+        <v>1.009427094970713</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.006324616328347</v>
+        <v>1.005853763671668</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.007011832063645</v>
+        <v>1.005824817546648</v>
       </c>
       <c r="T8" s="22" t="n">
         <v>1.011517996249384</v>
@@ -7149,7 +7149,7 @@
         <v>1.009379780413783</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.006206519718504</v>
+        <v>1.00517619141755</v>
       </c>
     </row>
     <row r="9">
@@ -7158,62 +7158,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9577115013981208</v>
+        <v>0.9564766115388029</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9829029692891266</v>
+        <v>0.9838977875221286</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.989294413942481</v>
+        <v>0.9846489160956897</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9984221173113315</v>
+        <v>0.9938639867683058</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9077268070475222</v>
+        <v>0.9064937452355467</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9808215841691057</v>
+        <v>0.9823348556525249</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9876344579011048</v>
+        <v>0.9843774540096006</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9981592192128728</v>
+        <v>0.9942860032545568</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.00296670484281</v>
+        <v>1.003742439328871</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.003817857032836</v>
+        <v>1.004808763924213</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.006657627249279</v>
+        <v>1.009817742949445</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1</v>
+        <v>1.004108560662734</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.002995623321609</v>
+        <v>1.003649944226544</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.003994164428812</v>
+        <v>1.004866592302059</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.007565739634754</v>
+        <v>1.009310595381248</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1</v>
+        <v>1.003489711492988</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.003817857032836</v>
+        <v>1.004808763924213</v>
       </c>
     </row>
     <row r="10">
@@ -7222,62 +7222,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9605527487473334</v>
+        <v>0.9600561672269707</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9866555523030226</v>
+        <v>0.988629119707878</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9958807673903042</v>
+        <v>0.9943159460493669</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9984221173113315</v>
+        <v>0.9979473372484499</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.910446014640363</v>
+        <v>0.9098023968473673</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9847391468516047</v>
+        <v>0.9871154788990872</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9951066430638957</v>
+        <v>0.9935425941863066</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9981592192128728</v>
+        <v>0.9977557745474313</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9860171405493957</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.033109311649977</v>
+        <v>1.032632115618546</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.005364157079237</v>
+        <v>1.002351340210584</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.001863546006857</v>
+        <v>1.001775082585269</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.001207523159087</v>
+        <v>1.00123799914578</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.088808180884603</v>
+        <v>1.088452830117336</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.006008906253929</v>
+        <v>1.002691477998623</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.002246434253801</v>
+        <v>1.002149381873245</v>
       </c>
       <c r="U10" s="22" t="n">
         <v>1.001418698100477</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.005364157079237</v>
+        <v>1.002351340210584</v>
       </c>
     </row>
     <row r="11">
@@ -7286,50 +7286,50 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9923559890618514</v>
+        <v>0.9913848310762193</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9919481276686775</v>
+        <v>0.9909537231104019</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9977366370176804</v>
+        <v>0.9960809389694546</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9996277351405294</v>
+        <v>0.9991827951994974</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9913010689942101</v>
+        <v>0.9902769936960523</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9906563520696104</v>
+        <v>0.9897722784926446</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9973420847130597</v>
+        <v>0.9956780966285476</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9995753058011435</v>
+        <v>0.9991712887695212</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.8736031882900518</v>
+        <v>0.9889805921347967</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.00325704701787</v>
+        <v>1.003069406389651</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.00354560774471</v>
+        <v>1.003600450543933</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.000209354325007</v>
+        <v>1.000204397848334</v>
       </c>
       <c r="Q11" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.003844827352439</v>
+        <v>1.003707028336983</v>
       </c>
       <c r="S11" s="22" t="n">
         <v>1.004324866393147</v>
@@ -7341,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.00354560774471</v>
+        <v>1.003600450543933</v>
       </c>
     </row>
     <row r="12">
@@ -7350,62 +7350,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9955881391766908</v>
+        <v>0.9944277940113277</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9954651866324902</v>
+        <v>0.9945216029817867</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9979455174978584</v>
+        <v>0.9962845357701465</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9996277351405294</v>
+        <v>0.9991827951994974</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9951124504587815</v>
+        <v>0.9939479785731462</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9949408084338341</v>
+        <v>0.9940529113567662</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9975920140308898</v>
+        <v>0.9959276089586526</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9995753058011435</v>
+        <v>0.9991712887695212</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.8753167689959469</v>
+        <v>0.9909326750011443</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.001834668144026</v>
+        <v>1.001922752243943</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.001958407399774</v>
+        <v>1.00182824515472</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.001235929285318</v>
+        <v>1.001453145934242</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1</v>
+        <v>1.000439462347701</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.002135743149194</v>
+        <v>1.002224351788583</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.00230862640694</v>
+        <v>1.002118556423121</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.001507739779928</v>
+        <v>1.001709915841311</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1</v>
+        <v>1.000404352122768</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.001958407399774</v>
+        <v>1.00182824515472</v>
       </c>
     </row>
     <row r="13">
@@ -7414,44 +7414,44 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9974147130202083</v>
+        <v>0.9963398322837024</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9974147130202083</v>
+        <v>0.9963398322837024</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9991789075880863</v>
+        <v>0.9977322825926486</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9996277351405294</v>
+        <v>0.9996218984164583</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9972377550575264</v>
+        <v>0.9961588685370437</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9972377550575264</v>
+        <v>0.9961588685370437</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9990961231945823</v>
+        <v>0.9976305613540104</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9995753058011435</v>
+        <v>0.9995753058011437</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.001207873598419</v>
+        <v>1.001193733276751</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.001207873598419</v>
+        <v>1.001193733276751</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.00039571461224</v>
+        <v>1.000390194514514</v>
       </c>
       <c r="Q13" s="22" t="n">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.001207873598419</v>
+        <v>1.001193733276751</v>
       </c>
     </row>
     <row r="14">
@@ -7478,62 +7478,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9986194639187402</v>
+        <v>0.9975291962964521</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9986194639187402</v>
+        <v>0.9975291962964521</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9995742972820603</v>
+        <v>0.9981215922562695</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9996277351405294</v>
+        <v>0.9996218984164583</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9981916099601956</v>
+        <v>0.9971116914880126</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9981916099601956</v>
+        <v>0.9971116914880126</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.999521044484755</v>
+        <v>0.998054859332358</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9995753058011435</v>
+        <v>0.9995753058011437</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.001312198504915</v>
+        <v>1.00131659543411</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.001312198504915</v>
+        <v>1.00131659543411</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.00031862088287</v>
+        <v>1.000428502539362</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.000165616986208</v>
+        <v>1.000170930107978</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.001744633101139</v>
+        <v>1.001744288030216</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.001744633101139</v>
+        <v>1.001744288030216</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.000378772414489</v>
+        <v>1.000496080212471</v>
       </c>
       <c r="U14" s="22" t="n">
         <v>1.0002240804768</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.001312198504915</v>
+        <v>1.00131659543411</v>
       </c>
     </row>
     <row r="15">
@@ -7542,31 +7542,31 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9999298508862737</v>
+        <v>0.9988425386816873</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9999298508862737</v>
+        <v>0.9988425386816873</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9998927825271545</v>
+        <v>0.9985492898931438</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9997932904733533</v>
+        <v>0.9997927638954918</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9999330880842109</v>
+        <v>0.9988509414762636</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9999330880842109</v>
+        <v>0.9988509414762636</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9998996354841074</v>
+        <v>0.9985499745990337</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9997992911122652</v>
+        <v>0.9997992911122654</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
@@ -7606,62 +7606,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9999298508862737</v>
+        <v>0.9988425386816873</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9999298508862737</v>
+        <v>0.9988425386816873</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9998927825271545</v>
+        <v>0.9985492898931438</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9997932904733533</v>
+        <v>0.9997927638954918</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9999330880842109</v>
+        <v>0.9988509414762636</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9999330880842109</v>
+        <v>0.9988509414762636</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9998996354841074</v>
+        <v>0.9985499745990337</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9997992911122652</v>
+        <v>0.9997992911122654</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.8833384737318346</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.00007015403497</v>
+        <v>1.000397935958438</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.00007015403497</v>
+        <v>1.000397935958438</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.000107228969665</v>
+        <v>1.00061658328779</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.000206752264309</v>
+        <v>1.000207279060213</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.000066916393293</v>
+        <v>1.00041477118469</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.000066916393293</v>
+        <v>1.00041477118469</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.00010037458994</v>
+        <v>1.000622156777034</v>
       </c>
       <c r="U16" s="22" t="n">
         <v>1.000200749179879</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.00007015403497</v>
+        <v>1.000397935958438</v>
       </c>
     </row>
     <row r="17">
@@ -7670,25 +7670,25 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>1</v>
+        <v>0.9992400140446459</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>1</v>
+        <v>0.9992400140446459</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>1</v>
+        <v>0.9991649786973268</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>1</v>
+        <v>0.9992652360645879</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>1</v>
+        <v>0.9992652360645879</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>1</v>
+        <v>0.999171229232938</v>
       </c>
       <c r="I17" s="34" t="n">
         <v>1</v>
@@ -7701,31 +7701,31 @@
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1</v>
+        <v>1.000081668327951</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1</v>
+        <v>1.000081668327951</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1</v>
+        <v>1.000112421687879</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1</v>
+        <v>1.000089043065748</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1</v>
+        <v>1.000089043065748</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1</v>
+        <v>1.000118724087664</v>
       </c>
       <c r="U17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1</v>
+        <v>1.000081668327951</v>
       </c>
     </row>
     <row r="18">
@@ -7734,25 +7734,25 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>1</v>
+        <v>0.9993216203058152</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>1</v>
+        <v>0.9993216203058152</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>1</v>
+        <v>0.9992773065107019</v>
       </c>
       <c r="E18" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>1</v>
+        <v>0.9993542137047029</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>1</v>
+        <v>0.9993542137047029</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>1</v>
+        <v>0.9992898549255492</v>
       </c>
       <c r="I18" s="34" t="n">
         <v>1</v>
@@ -7765,31 +7765,31 @@
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1</v>
+        <v>1.000350961722116</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1</v>
+        <v>1.000350961722116</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1</v>
+        <v>1.000395323129375</v>
       </c>
       <c r="Q18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1</v>
+        <v>1.000386576477845</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1</v>
+        <v>1.000386576477845</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1</v>
+        <v>1.000451005890819</v>
       </c>
       <c r="U18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1</v>
+        <v>1.000350961722116</v>
       </c>
     </row>
     <row r="19">
@@ -7798,25 +7798,25 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>1</v>
+        <v>0.9996723439426254</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>1</v>
+        <v>0.9996723439426254</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>1</v>
+        <v>0.9996723439426254</v>
       </c>
       <c r="E19" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>1</v>
+        <v>0.9997405405367561</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>1</v>
+        <v>0.9997405405367561</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>1</v>
+        <v>0.9997405405367561</v>
       </c>
       <c r="I19" s="34" t="n">
         <v>1</v>
@@ -7829,31 +7829,31 @@
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1</v>
+        <v>1.000089919260575</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1</v>
+        <v>1.000089919260575</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1</v>
+        <v>1.000089919260575</v>
       </c>
       <c r="Q19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1</v>
+        <v>1.000090990788874</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1</v>
+        <v>1.000090990788874</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1</v>
+        <v>1.000090990788874</v>
       </c>
       <c r="U19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1</v>
+        <v>1.000089919260575</v>
       </c>
     </row>
     <row r="20">
@@ -7862,25 +7862,25 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>1</v>
+        <v>0.9997622337406101</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>1</v>
+        <v>0.9997622337406101</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>1</v>
+        <v>0.9997622337406101</v>
       </c>
       <c r="E20" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>1</v>
+        <v>0.9998315077172083</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>1</v>
+        <v>0.9998315077172083</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>1</v>
+        <v>0.9998315077172083</v>
       </c>
       <c r="I20" s="34" t="n">
         <v>1</v>
@@ -7893,31 +7893,31 @@
         <v/>
       </c>
       <c r="N20" s="22" t="n">
-        <v>1</v>
+        <v>1.000237822805629</v>
       </c>
       <c r="O20" s="22" t="n">
-        <v>1</v>
+        <v>1.000237822805629</v>
       </c>
       <c r="P20" s="22" t="n">
-        <v>1</v>
+        <v>1.000237822805629</v>
       </c>
       <c r="Q20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="22" t="n">
-        <v>1</v>
+        <v>1.000168520677225</v>
       </c>
       <c r="S20" s="22" t="n">
-        <v>1</v>
+        <v>1.000168520677225</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1</v>
+        <v>1.000168520677225</v>
       </c>
       <c r="U20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1</v>
+        <v>1.000237822805629</v>
       </c>
     </row>
     <row r="21">
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>35353.57</v>
+        <v>31343.85</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>84301.66999999998</v>
+        <v>70809.73666666666</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>3123.05</v>
+        <v>3519.95</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>32787.63</v>
+        <v>7282.259999999999</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>33493.73</v>
+        <v>7526.669999999999</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>33576.73</v>
+        <v>7799.429999999999</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>34014.23</v>
+        <v>9613.810000000001</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>34744.23</v>
+        <v>11387.41</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>34792.95</v>
+        <v>13591.43</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>35071.45</v>
+        <v>13632.26</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>35071.45</v>
+        <v>13632.26</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>35258.39</v>
+        <v>30736.46</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>35326.41</v>
+        <v>30736.46</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>35328.57</v>
+        <v>30843.85</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>35328.57</v>
+        <v>30843.85</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>35353.57</v>
+        <v>31343.85</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>35353.57</v>
+        <v>31343.85</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>35353.57</v>
+        <v>31343.85</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>35353.57</v>
+        <v>31343.85</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>35353.57</v>
+        <v>31343.85</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>35353.57</v>
+        <v>31343.85</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>35353.57</v>
+        <v>31343.85</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>35353.57</v>
+        <v>31343.85</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>35353.57</v>
+        <v>31343.85</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>35353.57</v>
+        <v>31343.85</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>35353.57</v>
+        <v>31343.85</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>31343.85</v>
+        <v>56562.94000000001</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>70809.73666666668</v>
+        <v>77134.02333333333</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8739,73 +8739,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>3519.95</v>
+        <v>34356.58</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>7282.26</v>
+        <v>35240.58</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>7526.67</v>
+        <v>38258.08000000001</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>7799.43</v>
+        <v>55185.79000000001</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>9613.810000000001</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>11387.41</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>13591.43</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>13632.26</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>13632.26</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>30736.46</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>30736.46</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>30843.85</v>
+        <v>56015.32000000001</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>30843.85</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>31343.85</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>31343.85</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>31343.85</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>31343.85</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>31343.85</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>31343.85</v>
+        <v>56515.32000000001</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>31343.85</v>
+        <v>56562.94000000001</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>31343.85</v>
+        <v>56562.94000000001</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>31343.85</v>
+        <v>56562.94000000001</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>31343.85</v>
+        <v>56562.94000000001</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>56515.32000000001</v>
+        <v>39201.18</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>77134.02333333333</v>
+        <v>66581.40916666666</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8866,70 +8866,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>34356.58</v>
+        <v>31374.58</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>35240.58</v>
+        <v>36230.79</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>38258.08000000001</v>
+        <v>37226.79</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>55185.79000000001</v>
+        <v>37332.79</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>37654.79</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>37654.79</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>37654.79</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>37679.79</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>37679.79</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>39179.79</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>39179.79</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>56015.32000000001</v>
+        <v>39179.79</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>56515.32000000001</v>
+        <v>39179.79</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>56515.32000000001</v>
+        <v>39179.79</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>56515.32000000001</v>
+        <v>39179.79</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>56515.32000000001</v>
+        <v>39179.79</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>56515.32000000001</v>
+        <v>39179.79</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>56515.32000000001</v>
+        <v>39179.79</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>56515.32000000001</v>
+        <v>39201.18</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>56515.32000000001</v>
+        <v>39201.18</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>56515.32000000001</v>
+        <v>39201.18</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>56515.32000000001</v>
+        <v>39201.18</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>39179.79</v>
+        <v>36324.45999999999</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>66581.40916666668</v>
+        <v>76067.61500000001</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8993,67 +8993,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>31374.58</v>
+        <v>32418.68</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>36230.79</v>
+        <v>33618.08</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>37226.79</v>
+        <v>33841.08</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>37332.79</v>
+        <v>34121.08</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>37654.79</v>
+        <v>34121.08</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>37654.79</v>
+        <v>34151.42999999999</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>37654.79</v>
+        <v>34176.42999999999</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>37679.79</v>
+        <v>34576.42999999999</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>37679.79</v>
+        <v>34576.42999999999</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>39179.79</v>
+        <v>34576.42999999999</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>39179.79</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>39179.79</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>39179.79</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>39179.79</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>39179.79</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>39179.79</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>39179.79</v>
+        <v>36226.42999999999</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>39179.79</v>
+        <v>36324.45999999999</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>39179.79</v>
+        <v>36324.45999999999</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>39179.79</v>
+        <v>36324.45999999999</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>39179.79</v>
+        <v>36324.45999999999</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>36226.42999999999</v>
+        <v>36848.30000000001</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>76067.61500000001</v>
+        <v>72901.14583333334</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9120,64 +9120,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>32418.68</v>
+        <v>31751.08</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>33618.08</v>
+        <v>33209.18</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>33841.08</v>
+        <v>33535.18</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>34121.08</v>
+        <v>33789.06</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>34121.08</v>
+        <v>34984.06</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>34151.42999999999</v>
+        <v>35102.07000000001</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>34176.42999999999</v>
+        <v>35102.07000000001</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>34576.42999999999</v>
+        <v>35602.07000000001</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>34576.42999999999</v>
+        <v>35602.07000000001</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>34576.42999999999</v>
+        <v>36272.07000000001</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>36272.07000000001</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>36822.07000000001</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>36848.30000000001</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>36848.30000000001</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>36848.30000000001</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>36226.42999999999</v>
+        <v>36848.30000000001</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>36822.07000000001</v>
+        <v>37668.35</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>72901.14583333334</v>
+        <v>66947.35000000001</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9247,61 +9247,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>31751.08</v>
+        <v>30423.08</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>33209.18</v>
+        <v>32367.88</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>33535.18</v>
+        <v>32681.14</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>33789.06</v>
+        <v>34136.07</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>34984.06</v>
+        <v>36369.82</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>35102.07000000001</v>
+        <v>37365.79</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>35102.07000000001</v>
+        <v>37365.79</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>35602.07000000001</v>
+        <v>37390.79</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>35602.07000000001</v>
+        <v>37390.79</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>36272.07000000001</v>
+        <v>37390.79</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>36272.07000000001</v>
+        <v>37490.79</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>36822.07000000001</v>
+        <v>37490.79</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>36822.07000000001</v>
+        <v>37490.79</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>36822.07000000001</v>
+        <v>37550.79</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>36822.07000000001</v>
+        <v>37550.79</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>36822.07000000001</v>
+        <v>37668.35</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>36822.07000000001</v>
+        <v>37668.35</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>36822.07000000001</v>
+        <v>37668.35</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>36822.07000000001</v>
+        <v>37668.35</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>37550.79</v>
+        <v>41536.17000000001</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9351,7 +9351,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>66947.35000000001</v>
+        <v>74898.13833333334</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9374,58 +9374,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>30423.08</v>
+        <v>34519.58</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>32367.88</v>
+        <v>39689.26</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>32681.14</v>
+        <v>39976.76</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>34136.07</v>
+        <v>40421.51000000001</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>36369.82</v>
+        <v>40421.51000000001</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>37365.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>37365.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>37390.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>37390.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>37390.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>37490.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>37490.79</v>
+        <v>41405.51000000001</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>37490.79</v>
+        <v>41511.17000000001</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>37550.79</v>
+        <v>41511.17000000001</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>37550.79</v>
+        <v>41511.17000000001</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>37550.79</v>
+        <v>41536.17000000001</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>37550.79</v>
+        <v>41536.17000000001</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>37550.79</v>
+        <v>41536.17000000001</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>41536.17000000001</v>
+        <v>41885.16</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>74898.13833333334</v>
+        <v>76192.5475</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9501,55 +9501,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>34519.58</v>
+        <v>32411.4</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>39689.26</v>
+        <v>35754.7</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>39976.76</v>
+        <v>39109.7</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>40421.51000000001</v>
+        <v>41659.7</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>40421.51000000001</v>
+        <v>41659.7</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41749.50000000001</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41849.50000000001</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41849.50000000001</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41849.50000000001</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>41405.51000000001</v>
+        <v>41855.7</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>41511.17000000001</v>
+        <v>41855.7</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>41511.17000000001</v>
+        <v>41885.16</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>41511.17000000001</v>
+        <v>41885.16</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>41536.17000000001</v>
+        <v>41885.16</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>41536.17000000001</v>
+        <v>41885.16</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>41855.7</v>
+        <v>37214.02</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>76192.5475</v>
+        <v>61517.36916666667</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9628,52 +9628,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>32411.4</v>
+        <v>31718</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>35754.7</v>
+        <v>35250.6</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>39109.7</v>
+        <v>36289.10000000001</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>41659.7</v>
+        <v>36289.10000000001</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>41659.7</v>
+        <v>36779.10000000001</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>41749.50000000001</v>
+        <v>36779.10000000001</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>41749.50000000001</v>
+        <v>36779.10000000001</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>41749.50000000001</v>
+        <v>36779.10000000001</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>41849.50000000001</v>
+        <v>36784.26000000001</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>41849.50000000001</v>
+        <v>36805.68000000001</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>41849.50000000001</v>
+        <v>36861.02</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>41855.7</v>
+        <v>37189.02</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>41855.7</v>
+        <v>37189.02</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>41855.7</v>
+        <v>37214.02</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>41855.7</v>
+        <v>37214.02</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>41855.7</v>
+        <v>37214.02</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>37214.02</v>
+        <v>71905.97999999997</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>61517.36916666667</v>
+        <v>72644.10897499998</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9755,49 +9755,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>31718</v>
+        <v>35575.68</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>35250.6</v>
+        <v>68789.92</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>36289.10000000001</v>
+        <v>71289.92000000001</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>36289.10000000001</v>
+        <v>71289.92</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>36779.10000000001</v>
+        <v>71771.03999999999</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>36779.10000000001</v>
+        <v>71871.03999999999</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>36779.10000000001</v>
+        <v>71871.03999999998</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>36779.10000000001</v>
+        <v>71879.71999999997</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>36784.26000000001</v>
+        <v>71879.71999999997</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>36805.68000000001</v>
+        <v>71905.97999999997</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>36861.02</v>
+        <v>71905.97999999997</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>37189.02</v>
+        <v>71905.97999999997</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>37189.02</v>
+        <v>71905.97999999997</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>37214.02</v>
+        <v>71905.97999999997</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>37214.02</v>
+        <v>71905.97999999997</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>71905.97999999997</v>
+        <v>37163.61000000001</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>72644.10897499998</v>
+        <v>68774.0675</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9882,46 +9882,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>35575.68</v>
+        <v>2105</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>68789.92</v>
+        <v>35591.77</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>71289.92000000001</v>
+        <v>35791.77</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>71289.92</v>
+        <v>36796.10000000001</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>71771.03999999999</v>
+        <v>36796.10000000001</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>71871.03999999999</v>
+        <v>36796.10000000001</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>71871.03999999998</v>
+        <v>36856.10000000001</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>71879.71999999997</v>
+        <v>36856.10000000001</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>71879.71999999997</v>
+        <v>36858.61000000001</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>71905.97999999997</v>
+        <v>37163.61000000001</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>71905.97999999997</v>
+        <v>37163.61000000001</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>71905.97999999997</v>
+        <v>37163.61000000001</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>71905.97999999997</v>
+        <v>37163.61000000001</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>71905.97999999997</v>
+        <v>37163.61000000001</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>37163.61000000001</v>
+        <v>41268.2</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9986,7 +9986,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>68774.0675</v>
+        <v>63530.44749999999</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10012,43 +10012,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>2105</v>
+        <v>33501.69</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>35591.77</v>
+        <v>33695.69</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>35791.77</v>
+        <v>36563.44</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>36796.10000000001</v>
+        <v>36663.44</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>36796.10000000001</v>
+        <v>36760.94</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>36796.10000000001</v>
+        <v>38585.94</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>36856.10000000001</v>
+        <v>38585.94</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>36856.10000000001</v>
+        <v>39430.94</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>36858.61000000001</v>
+        <v>41218.2</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>37163.61000000001</v>
+        <v>41218.2</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>37163.61000000001</v>
+        <v>41218.2</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>37163.61000000001</v>
+        <v>41268.2</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>37163.61000000001</v>
+        <v>41268.2</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>41218.2</v>
+        <v>35393.58</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>63530.44749999999</v>
+        <v>76526.11916666667</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10148,40 +10148,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>33501.69</v>
+        <v>31576.8</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>33695.69</v>
+        <v>32524.6</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>36563.44</v>
+        <v>33137.1</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>36663.44</v>
+        <v>33366.1</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>36760.94</v>
+        <v>34471.1</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>38585.94</v>
+        <v>34571.1</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>38585.94</v>
+        <v>34584.08</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>39430.94</v>
+        <v>35243.58</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>41218.2</v>
+        <v>35243.58</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>41218.2</v>
+        <v>35393.58</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>41218.2</v>
+        <v>35393.58</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>41218.2</v>
+        <v>35393.58</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>35393.58</v>
+        <v>48259.44</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>76526.11916666667</v>
+        <v>62919.23583333332</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10284,37 +10284,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>31576.8</v>
+        <v>32064</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>32524.6</v>
+        <v>32884.5</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>33137.1</v>
+        <v>47116.15</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>33366.1</v>
+        <v>47653.65</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>34471.1</v>
+        <v>47753.65</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>34571.1</v>
+        <v>47759.44</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>34584.08</v>
+        <v>47759.44</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>35243.58</v>
+        <v>47759.44</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>35243.58</v>
+        <v>48259.44</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>35393.58</v>
+        <v>48259.44</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>35393.58</v>
+        <v>48259.44</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>47759.44</v>
+        <v>37660.23000000001</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>62919.23583333332</v>
+        <v>61890.5225</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10420,34 +10420,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>32064</v>
+        <v>32039.6</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>32884.5</v>
+        <v>35532.5</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>47116.15</v>
+        <v>35782.50000000001</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>47653.65</v>
+        <v>35882.50000000001</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>47753.65</v>
+        <v>36629.50000000001</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>47759.44</v>
+        <v>36629.50000000001</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>47759.44</v>
+        <v>36629.50000000001</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>47759.44</v>
+        <v>37660.23000000001</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>47759.44</v>
+        <v>37660.23000000001</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>47759.44</v>
+        <v>37660.23000000001</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>37660.23000000001</v>
+        <v>36277.45</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>61890.5225</v>
+        <v>69032.43833333334</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10556,31 +10556,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>32039.6</v>
+        <v>33349</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>35532.5</v>
+        <v>34773.27</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>35782.50000000001</v>
+        <v>34773.27</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>35882.50000000001</v>
+        <v>34970.52</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>36629.50000000001</v>
+        <v>35767.52</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>36629.50000000001</v>
+        <v>35767.52</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>36629.50000000001</v>
+        <v>36277.45</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>37660.23000000001</v>
+        <v>36277.45</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>37660.23000000001</v>
+        <v>36277.45</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>35777.45</v>
+        <v>36430.02</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10662,7 +10662,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>69032.43833333334</v>
+        <v>56166.315</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10694,28 +10694,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>33349</v>
+        <v>32099</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>34773.27</v>
+        <v>33689.5</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>34773.27</v>
+        <v>33791.64</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>34970.52</v>
+        <v>34611.56</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>35767.52</v>
+        <v>35987.52</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>35767.52</v>
+        <v>35987.52</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>35777.45</v>
+        <v>36430.02</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>35777.45</v>
+        <v>36430.02</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>35987.52</v>
+        <v>67132</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>56166.315</v>
+        <v>66947.21500000001</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10832,25 +10832,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>32099</v>
+        <v>62255</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>33689.5</v>
+        <v>62602.5</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>33791.64</v>
+        <v>66493.5</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>34611.56</v>
+        <v>66743.5</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>35987.52</v>
+        <v>66916</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>35987.52</v>
+        <v>67132</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>35987.52</v>
+        <v>67132</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>66916</v>
+        <v>38736.67</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>66947.215</v>
+        <v>63311.52583333333</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10970,22 +10970,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>62255</v>
+        <v>3967</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>62602.5</v>
+        <v>37562</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>66493.5</v>
+        <v>37762</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>66743.5</v>
+        <v>38273.17</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>66916</v>
+        <v>38736.67</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>66916</v>
+        <v>38736.67</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>38273.17</v>
+        <v>40957.95</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>63311.52583333333</v>
+        <v>67340.0125</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11108,19 +11108,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>3967</v>
+        <v>36360.9</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>37562</v>
+        <v>38440.02</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>37762</v>
+        <v>40787.95</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>38273.17</v>
+        <v>40957.95</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>38273.17</v>
+        <v>40957.95</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>40787.95</v>
+        <v>74848.31</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>67340.0125</v>
+        <v>64380.91</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11246,16 +11246,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>36360.9</v>
+        <v>36251.4</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>38440.02</v>
+        <v>73978.81</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>40787.95</v>
+        <v>74848.31</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>40787.95</v>
+        <v>74848.31</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>73978.81</v>
+        <v>40586.15</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11352,7 +11352,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>64380.91</v>
+        <v>61136.61147500001</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>0</v>
@@ -11383,13 +11383,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>36251.4</v>
+        <v>38042.25</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>73978.81</v>
+        <v>40586.15</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>73978.81</v>
+        <v>40586.15</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11463,7 +11463,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>3972.75</v>
+        <v>4461</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11490,7 +11490,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>61136.61147500001</v>
+        <v>60347.3125</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>105</v>
@@ -11521,10 +11521,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>3972.75</v>
+        <v>4461</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>3972.75</v>
+        <v>4461</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
